--- a/Thapar BE_B Tech 2025 Placement Data.xlsx
+++ b/Thapar BE_B Tech 2025 Placement Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>S No.</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>CG Cut</t>
+  </si>
+  <si>
     <t>JP Morgan</t>
   </si>
   <si>
@@ -70,15 +73,15 @@
     <t>Specialist Programmer</t>
   </si>
   <si>
+    <t>July</t>
+  </si>
+  <si>
     <t>Google</t>
   </si>
   <si>
     <t>SDE</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Bain</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
     <t>Misc</t>
   </si>
   <si>
+    <t>Arista(Through ACE Certification Program)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Cloudera</t>
   </si>
   <si>
@@ -154,6 +163,12 @@
     <t>AI Product Analyst</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
     <t>Playsimple</t>
   </si>
   <si>
@@ -286,6 +301,9 @@
     <t>ARM</t>
   </si>
   <si>
+    <t>Hardware</t>
+  </si>
+  <si>
     <t>Meesho</t>
   </si>
   <si>
@@ -305,6 +323,54 @@
   </si>
   <si>
     <t>Deloitte</t>
+  </si>
+  <si>
+    <t>Axtria</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <t>Amadeus Labs</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Signify</t>
+  </si>
+  <si>
+    <t>Assistant Dev Engineer</t>
+  </si>
+  <si>
+    <t>IDFC Bank</t>
+  </si>
+  <si>
+    <t>Associate Data Engineer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>September</t>
+    </r>
+  </si>
+  <si>
+    <t>GEP Worldwide</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>Career India(Mechanical Only)</t>
+  </si>
+  <si>
+    <t>Technip India Ltd.(EE,ME,CIE,CE)</t>
+  </si>
+  <si>
+    <t>Samsung E&amp;A India (EE,ME,CE)</t>
   </si>
 </sst>
 </file>
@@ -338,12 +404,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +630,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.88"/>
+    <col customWidth="1" min="2" max="2" width="36.38"/>
     <col customWidth="1" min="3" max="3" width="29.88"/>
     <col customWidth="1" min="4" max="4" width="17.5"/>
     <col customWidth="1" min="5" max="5" width="25.63"/>
@@ -590,16 +659,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>10.0</v>
@@ -610,13 +682,13 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>33.0</v>
@@ -627,13 +699,13 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>30.0</v>
@@ -644,13 +716,13 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>4.0</v>
@@ -661,13 +733,13 @@
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>3.0</v>
@@ -678,13 +750,13 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>10.0</v>
@@ -695,12 +767,14 @@
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1">
         <v>0.0</v>
       </c>
@@ -710,13 +784,13 @@
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="1">
         <v>5.0</v>
@@ -727,13 +801,13 @@
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>2.0</v>
@@ -744,10 +818,10 @@
     </row>
     <row r="11">
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>2.0</v>
@@ -758,10 +832,10 @@
     </row>
     <row r="12">
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>3.0</v>
@@ -772,10 +846,10 @@
     </row>
     <row r="13">
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>2.0</v>
@@ -786,10 +860,10 @@
     </row>
     <row r="14">
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>1.0</v>
@@ -800,10 +874,10 @@
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>3.0</v>
@@ -814,10 +888,10 @@
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
         <v>1.0</v>
@@ -828,10 +902,10 @@
     </row>
     <row r="17">
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>3.0</v>
@@ -842,10 +916,10 @@
     </row>
     <row r="18">
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>2.0</v>
@@ -856,10 +930,10 @@
     </row>
     <row r="19">
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>5.0</v>
@@ -870,10 +944,10 @@
     </row>
     <row r="20">
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>3.0</v>
@@ -884,10 +958,10 @@
     </row>
     <row r="21">
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>2.0</v>
@@ -898,10 +972,10 @@
     </row>
     <row r="22">
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
         <v>2.0</v>
@@ -912,10 +986,10 @@
     </row>
     <row r="23">
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>1.0</v>
@@ -926,10 +1000,10 @@
     </row>
     <row r="24">
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
         <v>1.0</v>
@@ -940,72 +1014,72 @@
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>20.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.0</v>
       </c>
       <c r="F26" s="1">
-        <v>17.3</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="27">
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1">
         <v>17.3</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="1" t="s">
-        <v>41</v>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1">
-        <v>14.0</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="F29" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="30">
@@ -1016,182 +1090,249 @@
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>17.91</v>
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.0</v>
       </c>
       <c r="F31" s="1">
-        <v>14.0</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="32">
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F34" s="1">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1">
-        <v>25.0</v>
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="1">
-        <v>19.5</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="1">
-        <v>14.75</v>
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F39" s="1">
-        <v>15.0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F40" s="1">
-        <v>6.0</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F41" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F42" s="1">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.0</v>
+      </c>
       <c r="F44" s="1">
-        <v>0.75</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.75</v>
+        <v>22</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" s="1" t="s">
-        <v>66</v>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F46" s="1">
         <v>0.75</v>
       </c>
     </row>
     <row r="47">
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="1">
-        <v>6.0</v>
+        <v>70</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F47" s="1">
         <v>0.75</v>
@@ -1199,233 +1340,453 @@
     </row>
     <row r="48">
       <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="1">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1">
         <v>6.0</v>
       </c>
-      <c r="F48" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F49" s="1">
-        <v>9.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6.0</v>
       </c>
       <c r="F50" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1">
         <v>7.0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="C51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="1">
+    <row r="53">
+      <c r="C53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
     <row r="54">
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F54" s="1">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>11.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.0</v>
       </c>
       <c r="F56" s="1">
-        <v>45.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="1">
-        <v>22.0</v>
+        <v>22</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45.0</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F59" s="1">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="1">
-        <v>7.0</v>
+        <v>88</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="1">
-        <v>24.0</v>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F61" s="1">
-        <v>13.65</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F62" s="1">
-        <v>13.38</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1">
+        <v>24.0</v>
       </c>
       <c r="F63" s="1">
-        <v>15.75</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F64" s="1">
-        <v>34.0</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="1">
-        <v>13.0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1"/>
     </row>
     <row r="66">
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F66" s="1">
-        <v>11.0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F67" s="1">
-        <v>12.2</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F68" s="1">
-        <v>7.5</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F69" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1">
         <v>8.1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" s="1"/>
+    <row r="73">
+      <c r="B73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Thapar BE_B Tech 2025 Placement Data.xlsx
+++ b/Thapar BE_B Tech 2025 Placement Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="329">
   <si>
     <t>S No.</t>
   </si>
@@ -31,10 +31,19 @@
     <t>CTC(LPA)</t>
   </si>
   <si>
+    <t>Stipend</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>CG Cut</t>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Special Comments</t>
   </si>
   <si>
     <t>JP Morgan</t>
@@ -46,6 +55,21 @@
     <t>April</t>
   </si>
   <si>
+    <t>19.75(13 base)</t>
+  </si>
+  <si>
+    <t>75k/mo</t>
+  </si>
+  <si>
+    <t>Mumabi/Hyderabad/Bangalore</t>
+  </si>
+  <si>
+    <t>8.5CG+</t>
+  </si>
+  <si>
+    <t>CS-All Branches ENC</t>
+  </si>
+  <si>
     <t>Blackrock</t>
   </si>
   <si>
@@ -55,6 +79,18 @@
     <t>August</t>
   </si>
   <si>
+    <t>50k/mo</t>
+  </si>
+  <si>
+    <t>NCR/ All over India</t>
+  </si>
+  <si>
+    <t>6CG+</t>
+  </si>
+  <si>
+    <t>CS-All Branches ENC/ECE/EE/EIC/EEC</t>
+  </si>
+  <si>
     <t>Data And Software Engineering</t>
   </si>
   <si>
@@ -82,12 +118,36 @@
     <t>SDE</t>
   </si>
   <si>
+    <t>28(21.9 base</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>No Criteria</t>
+  </si>
+  <si>
+    <t>All Branches</t>
+  </si>
+  <si>
     <t>Bain</t>
   </si>
   <si>
     <t>Communication</t>
   </si>
   <si>
+    <t>40k/mo</t>
+  </si>
+  <si>
+    <t>Gurugram/Bangalore</t>
+  </si>
+  <si>
+    <t>CS-All branches EE/EIC/ENC/ECE/EEC/Mech/BME</t>
+  </si>
+  <si>
     <t>Financial Services</t>
   </si>
   <si>
@@ -133,7 +193,16 @@
     <t>Arista(Through ACE Certification Program)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>13(10 base)</t>
+  </si>
+  <si>
+    <t>25k/mo</t>
+  </si>
+  <si>
+    <t>Noida/Bangalore/Hyderabad/Pune</t>
+  </si>
+  <si>
+    <t>Dual Degree</t>
   </si>
   <si>
     <t>Cloudera</t>
@@ -145,9 +214,6 @@
     <t>Technical Analyst</t>
   </si>
   <si>
-    <t>Infinera</t>
-  </si>
-  <si>
     <t>AlgoSec</t>
   </si>
   <si>
@@ -157,12 +223,27 @@
     <t>18-20</t>
   </si>
   <si>
+    <t>Gurugram</t>
+  </si>
+  <si>
+    <t>CS-All Branches</t>
+  </si>
+  <si>
     <t>American Express</t>
   </si>
   <si>
     <t>AI Product Analyst</t>
   </si>
   <si>
+    <t>17.91(13.87 base)</t>
+  </si>
+  <si>
+    <t>1lac/mo</t>
+  </si>
+  <si>
+    <t>7CG+</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
@@ -175,21 +256,57 @@
     <t xml:space="preserve">SWE </t>
   </si>
   <si>
+    <t>14(13 base)</t>
+  </si>
+  <si>
+    <t>30k/mo</t>
+  </si>
+  <si>
+    <t>Bangalore(Domlur)</t>
+  </si>
+  <si>
+    <t>6.5CG+</t>
+  </si>
+  <si>
+    <t>CS-All Branches ECE/ENC/EEC</t>
+  </si>
+  <si>
     <t>Business Analyst</t>
   </si>
   <si>
     <t>Zhealthehr</t>
   </si>
   <si>
-    <t>35(14 Stock)</t>
+    <t>35(13 base 14 Stock)</t>
+  </si>
+  <si>
+    <t>27k/mo</t>
+  </si>
+  <si>
+    <t>Gurugram/Noida</t>
+  </si>
+  <si>
+    <t>8CG+</t>
   </si>
   <si>
     <t xml:space="preserve">Fastenal </t>
   </si>
   <si>
+    <t>17(15 base)</t>
+  </si>
+  <si>
+    <t>45k/mo</t>
+  </si>
+  <si>
+    <t>CS-All Branches ECE/ENC/EEC/EIC/EE</t>
+  </si>
+  <si>
     <t>Wayfair</t>
   </si>
   <si>
+    <t>25(23 base)</t>
+  </si>
+  <si>
     <t>GamesKraft</t>
   </si>
   <si>
@@ -199,15 +316,42 @@
     <t>Oracle</t>
   </si>
   <si>
+    <t>19.5(14.5 base)</t>
+  </si>
+  <si>
+    <t>Not given</t>
+  </si>
+  <si>
+    <t>CS- All branhces ENC/ECE/EEC/EIC/EE/</t>
+  </si>
+  <si>
     <t>Airtel</t>
   </si>
   <si>
+    <t>14.75(12.75 base)</t>
+  </si>
+  <si>
+    <t>Pan India</t>
+  </si>
+  <si>
     <t>Deutsche Telekom</t>
   </si>
   <si>
+    <t>15(13 base)</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>CS- All branhces ENC/ECE/EEC</t>
+  </si>
+  <si>
     <t>Siemens SPEL</t>
   </si>
   <si>
+    <t>CS-EE/ECE/EIC/Mech.</t>
+  </si>
+  <si>
     <t>Siemens Ltd.</t>
   </si>
   <si>
@@ -217,7 +361,7 @@
     <t>Apple(Intern-Only)</t>
   </si>
   <si>
-    <t>0.9 + 0.83(reloc)</t>
+    <t>90k/mo +10k/mo + 80k(Reloc)</t>
   </si>
   <si>
     <t xml:space="preserve">JP Morgan </t>
@@ -286,9 +430,6 @@
     <t>Warner Bros</t>
   </si>
   <si>
-    <t>SRF Ltd.</t>
-  </si>
-  <si>
     <t>ZS</t>
   </si>
   <si>
@@ -304,18 +445,54 @@
     <t>Hardware</t>
   </si>
   <si>
+    <t>45K/mo</t>
+  </si>
+  <si>
+    <t>CS-All branches ECE/ENC</t>
+  </si>
+  <si>
     <t>Meesho</t>
   </si>
   <si>
+    <t>34(20 base)</t>
+  </si>
+  <si>
+    <t>No CG Criteria</t>
+  </si>
+  <si>
+    <t>CS- All branches ENC/ECE/EIC/EE/EEC</t>
+  </si>
+  <si>
     <t>British Telecom</t>
   </si>
   <si>
+    <t>17(13 base)</t>
+  </si>
+  <si>
+    <t>60k/mo</t>
+  </si>
+  <si>
+    <t>CS- ALL branches ENC/ECE</t>
+  </si>
+  <si>
     <t>Loreal Paris</t>
   </si>
   <si>
+    <t>20k/mo</t>
+  </si>
+  <si>
+    <t>Baddi(HImachal Pradesh)</t>
+  </si>
+  <si>
+    <t>Chem/EE/EIC/EEC/ME</t>
+  </si>
+  <si>
     <t>Viscadia</t>
   </si>
   <si>
+    <t>CS-All branches ECE/ENC/EE/EIC/EEC</t>
+  </si>
+  <si>
     <t>Volvo</t>
   </si>
   <si>
@@ -331,7 +508,25 @@
     <t>Verizon</t>
   </si>
   <si>
+    <t>9.74(7 base)</t>
+  </si>
+  <si>
+    <t>Chennai/Hyderbad/Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-All branches </t>
+  </si>
+  <si>
     <t>Amadeus Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduate Engineer </t>
+  </si>
+  <si>
+    <t>7.5CG+</t>
+  </si>
+  <si>
+    <t>CS-All branches ENC/ECE/EEC/EE</t>
   </si>
   <si>
     <t>Honda</t>
@@ -358,26 +553,467 @@
     </r>
   </si>
   <si>
+    <t>18.4(16 base)</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>CS-All branches</t>
+  </si>
+  <si>
+    <t>1Lakh payment if u resign after intern</t>
+  </si>
+  <si>
     <t>GEP Worldwide</t>
   </si>
   <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>17(16 base)</t>
+  </si>
+  <si>
+    <t>Hyderabad/Mumbai</t>
+  </si>
+  <si>
     <t>Optum</t>
   </si>
   <si>
-    <t>Career India(Mechanical Only)</t>
-  </si>
-  <si>
-    <t>Technip India Ltd.(EE,ME,CIE,CE)</t>
-  </si>
-  <si>
-    <t>Samsung E&amp;A India (EE,ME,CE)</t>
+    <t>18.5(15.5 base)</t>
+  </si>
+  <si>
+    <t>Gurgaon/Hyderbad</t>
+  </si>
+  <si>
+    <t>CS-All branches ENC/EEC/ECE/EE/EIC</t>
+  </si>
+  <si>
+    <t>Career India</t>
+  </si>
+  <si>
+    <t>8.5(7.5 base)</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Technip India Ltd</t>
+  </si>
+  <si>
+    <t>EE/ME/CIE/CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung E&amp;A India </t>
+  </si>
+  <si>
+    <t>EE/ME/CE</t>
+  </si>
+  <si>
+    <t>Locofast</t>
+  </si>
+  <si>
+    <t>10(9 base)</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>7 Cg+, 80% in 12th</t>
+  </si>
+  <si>
+    <t>CS- All branches</t>
+  </si>
+  <si>
+    <t>UKG</t>
+  </si>
+  <si>
+    <t>21(15.5 base)</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>CS-All branches ENC/ECE</t>
+  </si>
+  <si>
+    <t>Siemens EDA Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>24(16.5 base)</t>
+  </si>
+  <si>
+    <t>Noida/Bangalore/Kolkata</t>
+  </si>
+  <si>
+    <t>CS- All branches ENC/EEC/EIC/ECE/EE</t>
+  </si>
+  <si>
+    <t>SDE(OS Role)</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Infinera</t>
+  </si>
+  <si>
+    <t>14(13.3 base)</t>
+  </si>
+  <si>
+    <t>ECE/ENC</t>
+  </si>
+  <si>
+    <t>Zavya</t>
+  </si>
+  <si>
+    <t>20-25k/mo</t>
+  </si>
+  <si>
+    <t>All Branches(Except Civil)</t>
+  </si>
+  <si>
+    <t>Addverb</t>
+  </si>
+  <si>
+    <t>GET-Software</t>
+  </si>
+  <si>
+    <t>CS-All branches/EE/EIC.EC.ENC/EEC</t>
+  </si>
+  <si>
+    <t>GET- Mobile Robotics</t>
+  </si>
+  <si>
+    <t>CS-All branches/EE/EIC.EC.ENC/EEC/Mech.</t>
+  </si>
+  <si>
+    <t>FNZ</t>
+  </si>
+  <si>
+    <t>Junior Analyst Developer</t>
+  </si>
+  <si>
+    <t>8.4CG+</t>
+  </si>
+  <si>
+    <t>CS- All Branches ECE/ENC/EEC</t>
+  </si>
+  <si>
+    <t>Junior Analyst Developer FNZ Studio</t>
+  </si>
+  <si>
+    <t>Junior Analyst Tester</t>
+  </si>
+  <si>
+    <t>BE- All Streams</t>
+  </si>
+  <si>
+    <t>WTW India</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Digital X Force</t>
+  </si>
+  <si>
+    <t>Cyber Security Intern</t>
+  </si>
+  <si>
+    <t>15k/mo</t>
+  </si>
+  <si>
+    <t>Mohali/Chandigrah/Delhi</t>
+  </si>
+  <si>
+    <t>CS- All branches ENC/EEC</t>
+  </si>
+  <si>
+    <t>Barco</t>
+  </si>
+  <si>
+    <t>18(15 base)</t>
+  </si>
+  <si>
+    <t>Shared later</t>
+  </si>
+  <si>
+    <t>Morphle Labs</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>ZScaler</t>
+  </si>
+  <si>
+    <t>shared later</t>
+  </si>
+  <si>
+    <t>Bangalore/Pune/Mohali/Hyderabad</t>
+  </si>
+  <si>
+    <t>CSE/COE/EE/EIC/ECE/ENC</t>
+  </si>
+  <si>
+    <t>Stone Wein Systems</t>
+  </si>
+  <si>
+    <t>11(9 base)</t>
+  </si>
+  <si>
+    <t>Chandigarh/Pune</t>
+  </si>
+  <si>
+    <t>CS- All branches ENC</t>
+  </si>
+  <si>
+    <t>2  lakh if u resign before 1 year</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>9(CTC mentioned only)</t>
+  </si>
+  <si>
+    <t>Pune/Hyderabad/Bengaluru</t>
+  </si>
+  <si>
+    <t>CS- All Branches</t>
+  </si>
+  <si>
+    <t>Advantage Club</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>14(10 base + 4 ESOPs)</t>
+  </si>
+  <si>
+    <t>6.50CG+</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>QA &amp; Testing Engineer</t>
+  </si>
+  <si>
+    <t>12(8 base + 4 ESOPs)</t>
+  </si>
+  <si>
+    <t>Arista Networks</t>
+  </si>
+  <si>
+    <t>Software Tester</t>
+  </si>
+  <si>
+    <t>22.5( base 15)</t>
+  </si>
+  <si>
+    <t>65k/mo + 50k reloc</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>7.50CG+</t>
+  </si>
+  <si>
+    <t>21.1(base 14)</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Airtel YTL Digital</t>
+  </si>
+  <si>
+    <t>Young Technical Leader</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Advance Application Enginnering Analyst</t>
+  </si>
+  <si>
+    <t>10.9( base 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Branches </t>
+  </si>
+  <si>
+    <t>Commvault Systems</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 base + 19k USD RSUs + 1.5 JB </t>
+  </si>
+  <si>
+    <t>CS-All branches /ENC</t>
+  </si>
+  <si>
+    <t>Software Quality</t>
+  </si>
+  <si>
+    <t>Development(CPP Or Java)</t>
+  </si>
+  <si>
+    <t>Testing(Python)</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>GPU Architecture Team</t>
+  </si>
+  <si>
+    <t>Hyderabad/Pune/Bangalore</t>
+  </si>
+  <si>
+    <t>7.8CG+</t>
+  </si>
+  <si>
+    <t>CS-All bramches/EE/EIC/ECE/ENC/EEC</t>
+  </si>
+  <si>
+    <t>Infra Team</t>
+  </si>
+  <si>
+    <t>VLSI Team</t>
+  </si>
+  <si>
+    <t>CPU Design And Verification Team</t>
+  </si>
+  <si>
+    <t>SoC TEGRA Design &amp; Verification</t>
+  </si>
+  <si>
+    <t>GPU ASIC Design Team</t>
+  </si>
+  <si>
+    <t>Oyo rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDE </t>
+  </si>
+  <si>
+    <t>CS-All branches/ENC/EEC/EC/CIVIL/EE/EIC/MECH/MECHA</t>
+  </si>
+  <si>
+    <t>MG Motor India</t>
+  </si>
+  <si>
+    <t>Gurugram/Halol/Mumbai/Bamgalore</t>
+  </si>
+  <si>
+    <t>EE/EIC/ECE/ENC/EEC/MECH/MECHA</t>
+  </si>
+  <si>
+    <t>Atkins Realis</t>
+  </si>
+  <si>
+    <t>CS-All branches/CIE/ME/EE/ECE/Chem./EIC</t>
+  </si>
+  <si>
+    <t>Evalueserve</t>
+  </si>
+  <si>
+    <t>Customer Insights And Data Analytics</t>
+  </si>
+  <si>
+    <t>Varroc Group</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>11.5(9 base)</t>
+  </si>
+  <si>
+    <t>MECHA</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Wireless Technology And Ecosystems</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>90k/mo +10k/mo + 73k(reloc)</t>
+  </si>
+  <si>
+    <t>CS- All branches/EE/EIC/ENC/ECE/EEC</t>
+  </si>
+  <si>
+    <t>SRF Ltd.</t>
+  </si>
+  <si>
+    <t>Chem</t>
+  </si>
+  <si>
+    <t>Techno Electric &amp; Engineering Co Ltd.</t>
+  </si>
+  <si>
+    <t>Civil/EE</t>
+  </si>
+  <si>
+    <t>Midea India Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>0k/mo(unpaid intern)</t>
+  </si>
+  <si>
+    <t>Ahmednagar</t>
+  </si>
+  <si>
+    <t>EE/ECE/MECH/MECHA</t>
+  </si>
+  <si>
+    <t>NuvertOS</t>
+  </si>
+  <si>
+    <t>9CG+</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>Digital Design</t>
+  </si>
+  <si>
+    <t>42.5k/mo</t>
+  </si>
+  <si>
+    <t>Noida/Bangalore/Pune/Hyderabad</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Analog &amp; Software Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m-d"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -389,13 +1025,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -404,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -412,6 +1058,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -631,10 +1283,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="36.38"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="33.13"/>
     <col customWidth="1" min="4" max="4" width="17.5"/>
     <col customWidth="1" min="5" max="5" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="19.38"/>
+    <col customWidth="1" min="6" max="6" width="37.38"/>
+    <col customWidth="1" min="7" max="7" width="26.25"/>
+    <col customWidth="1" min="8" max="8" width="32.13"/>
+    <col customWidth="1" min="9" max="9" width="23.88"/>
+    <col customWidth="1" min="10" max="10" width="48.13"/>
+    <col customWidth="1" min="11" max="11" width="30.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -662,33 +1319,54 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>10.0</v>
       </c>
-      <c r="F2" s="1">
-        <v>19.75</v>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>33.0</v>
@@ -696,16 +1374,28 @@
       <c r="F3" s="1">
         <v>18.0</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>30.0</v>
@@ -713,16 +1403,28 @@
       <c r="F4" s="1">
         <v>18.0</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>4.0</v>
@@ -730,16 +1432,28 @@
       <c r="F5" s="1">
         <v>18.0</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>3.0</v>
@@ -747,16 +1461,28 @@
       <c r="F6" s="1">
         <v>22.0</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>10.0</v>
@@ -764,19 +1490,31 @@
       <c r="F7" s="1">
         <v>22.0</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" s="1">
         <v>9.5</v>
@@ -784,30 +1522,42 @@
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>5.0</v>
       </c>
-      <c r="F9" s="1">
-        <v>28.0</v>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1">
         <v>2.0</v>
@@ -815,13 +1565,28 @@
       <c r="F10" s="1">
         <v>14.0</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
         <v>2.0</v>
@@ -829,13 +1594,28 @@
       <c r="F11" s="1">
         <v>14.0</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>3.0</v>
@@ -843,13 +1623,28 @@
       <c r="F12" s="1">
         <v>14.0</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>2.0</v>
@@ -857,13 +1652,28 @@
       <c r="F13" s="1">
         <v>14.0</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>1.0</v>
@@ -871,13 +1681,28 @@
       <c r="F14" s="1">
         <v>14.0</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15">
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
         <v>3.0</v>
@@ -885,13 +1710,28 @@
       <c r="F15" s="1">
         <v>14.0</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <v>1.0</v>
@@ -899,13 +1739,28 @@
       <c r="F16" s="1">
         <v>14.0</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>3.0</v>
@@ -913,13 +1768,28 @@
       <c r="F17" s="1">
         <v>14.0</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>2.0</v>
@@ -927,13 +1797,28 @@
       <c r="F18" s="1">
         <v>14.0</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1">
         <v>5.0</v>
@@ -941,13 +1826,28 @@
       <c r="F19" s="1">
         <v>14.0</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1">
         <v>3.0</v>
@@ -955,13 +1855,28 @@
       <c r="F20" s="1">
         <v>14.0</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>2.0</v>
@@ -969,13 +1884,28 @@
       <c r="F21" s="1">
         <v>14.0</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1">
         <v>2.0</v>
@@ -983,13 +1913,28 @@
       <c r="F22" s="1">
         <v>14.0</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <v>1.0</v>
@@ -997,13 +1942,28 @@
       <c r="F23" s="1">
         <v>14.0</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1">
         <v>1.0</v>
@@ -1011,33 +1971,57 @@
       <c r="F24" s="1">
         <v>14.0</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1">
         <v>4.0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1">
         <v>1.0</v>
@@ -1048,24 +2032,27 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
         <v>17.3</v>
       </c>
     </row>
     <row r="28">
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
         <v>17.3</v>
@@ -1073,719 +2060,2326 @@
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1">
-        <v>14.0</v>
+        <v>21</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2.0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <v>17.91</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
-        <v>12.0</v>
+        <v>21</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1">
         <v>1.0</v>
       </c>
-      <c r="F33" s="1">
-        <v>14.0</v>
+      <c r="F33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34">
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>14.0</v>
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5.0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>17.0</v>
+        <v>21</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1">
-        <v>25.0</v>
+        <v>21</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>60</v>
+      <c r="H38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1">
-        <v>19.5</v>
+        <v>21</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1">
-        <v>14.75</v>
+        <v>21</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1">
-        <v>15.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F42" s="1">
         <v>6.0</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.0</v>
       </c>
       <c r="F43" s="1">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
+      <c r="B46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.75</v>
+        <v>21</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0.75</v>
+        <v>21</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
+      <c r="B48" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.75</v>
+        <v>21</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
+      <c r="B49" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1">
-        <v>6.0</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1">
-        <v>0.75</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
+      <c r="B50" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1">
-        <v>6.0</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F51" s="1">
-        <v>9.0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52">
+      <c r="B52" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="53">
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6.0</v>
       </c>
       <c r="F53" s="1">
-        <v>3.3</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.0</v>
       </c>
       <c r="F54" s="1">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>11.0</v>
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56">
+      <c r="B56" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1.0</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1">
-        <v>11.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F57" s="1">
+        <v>22.0</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="1">
-        <v>45.0</v>
+        <v>21</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
+      </c>
+      <c r="E60" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>13.65</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1">
-        <v>18.0</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>142</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F62" s="1">
-        <v>7.0</v>
+        <v>15.75</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="1">
-        <v>24.0</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1">
-        <v>13.65</v>
+        <v>15.75</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1">
-        <v>13.38</v>
+      <c r="H64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1">
-        <v>15.75</v>
+        <v>11.0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1">
-        <v>34.0</v>
+      <c r="I67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F68" s="1">
-        <v>13.0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>162</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E69" s="1">
+        <v>39.0</v>
       </c>
       <c r="F69" s="1">
-        <v>11.0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1">
-        <v>12.2</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="1">
-        <v>7.5</v>
+        <v>21</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E72" s="1">
+        <v>18.0</v>
       </c>
       <c r="F72" s="1">
-        <v>8.1</v>
+        <v>12.62</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>173</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1">
+        <v>13.2</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="1" t="s">
-        <v>106</v>
+        <v>182</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>13</v>
+        <v>183</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1">
-        <v>13.2</v>
+        <v>183</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>183</v>
+      </c>
       <c r="F79" s="1">
-        <v>18.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="1">
-        <v>17.0</v>
+        <v>195</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F82" s="1">
-        <v>7.5</v>
+        <v>202</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F83" s="1">
-        <v>6.5</v>
+        <v>206</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="1" t="s">
-        <v>117</v>
+        <v>206</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" s="3">
+        <v>45514.0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98" s="3">
+        <v>45481.0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F115" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F116" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F118" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F119" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F120" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F122" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F123" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F126" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F127" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F128" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F129" s="3">
+        <v>45577.0</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F130" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F131" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Thapar BE_B Tech 2025 Placement Data.xlsx
+++ b/Thapar BE_B Tech 2025 Placement Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="397">
   <si>
     <t>S No.</t>
   </si>
@@ -34,15 +34,15 @@
     <t>Stipend</t>
   </si>
   <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Eligibility</t>
-  </si>
-  <si>
-    <t>Branches</t>
-  </si>
-  <si>
     <t>Special Comments</t>
   </si>
   <si>
@@ -61,15 +61,15 @@
     <t>75k/mo</t>
   </si>
   <si>
+    <t>CS-All Branches ENC</t>
+  </si>
+  <si>
+    <t>8.5CG+</t>
+  </si>
+  <si>
     <t>Mumabi/Hyderabad/Bangalore</t>
   </si>
   <si>
-    <t>8.5CG+</t>
-  </si>
-  <si>
-    <t>CS-All Branches ENC</t>
-  </si>
-  <si>
     <t>Blackrock</t>
   </si>
   <si>
@@ -79,18 +79,21 @@
     <t>August</t>
   </si>
   <si>
+    <t>18(base 15)</t>
+  </si>
+  <si>
     <t>50k/mo</t>
   </si>
   <si>
+    <t>CS-All Branches ENC/ECE/EE/EIC/EEC</t>
+  </si>
+  <si>
+    <t>6CG+</t>
+  </si>
+  <si>
     <t>NCR/ All over India</t>
   </si>
   <si>
-    <t>6CG+</t>
-  </si>
-  <si>
-    <t>CS-All Branches ENC/ECE/EE/EIC/EEC</t>
-  </si>
-  <si>
     <t>Data And Software Engineering</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>July</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Google</t>
   </si>
   <si>
@@ -121,18 +127,15 @@
     <t>28(21.9 base</t>
   </si>
   <si>
-    <t>-</t>
+    <t>All Branches</t>
+  </si>
+  <si>
+    <t>No Criteria</t>
   </si>
   <si>
     <t>Bangalore</t>
   </si>
   <si>
-    <t>No Criteria</t>
-  </si>
-  <si>
-    <t>All Branches</t>
-  </si>
-  <si>
     <t>Bain</t>
   </si>
   <si>
@@ -142,12 +145,12 @@
     <t>40k/mo</t>
   </si>
   <si>
+    <t>CS-All branches EE/EIC/ENC/ECE/EEC/Mech/BME</t>
+  </si>
+  <si>
     <t>Gurugram/Bangalore</t>
   </si>
   <si>
-    <t>CS-All branches EE/EIC/ENC/ECE/EEC/Mech/BME</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
@@ -199,18 +202,45 @@
     <t>25k/mo</t>
   </si>
   <si>
+    <t>Dual Degree</t>
+  </si>
+  <si>
     <t>Noida/Bangalore/Hyderabad/Pune</t>
   </si>
   <si>
-    <t>Dual Degree</t>
-  </si>
-  <si>
     <t>Cloudera</t>
   </si>
   <si>
+    <t>20.11(18 base)</t>
+  </si>
+  <si>
+    <t>45k/mo</t>
+  </si>
+  <si>
+    <t>CS-All branches</t>
+  </si>
+  <si>
+    <t>8CG+</t>
+  </si>
+  <si>
     <t>ION</t>
   </si>
   <si>
+    <t>17.3(15 base)</t>
+  </si>
+  <si>
+    <t>125k/mo</t>
+  </si>
+  <si>
+    <t>CS-All branches EE/EIC/EEC/EE/ENC</t>
+  </si>
+  <si>
+    <t>7.5CG+</t>
+  </si>
+  <si>
+    <t>Hyderabad/Chennai/Gugraon/Bangalore</t>
+  </si>
+  <si>
     <t>Technical Analyst</t>
   </si>
   <si>
@@ -223,12 +253,12 @@
     <t>18-20</t>
   </si>
   <si>
+    <t>CS-All Branches</t>
+  </si>
+  <si>
     <t>Gurugram</t>
   </si>
   <si>
-    <t>CS-All Branches</t>
-  </si>
-  <si>
     <t>American Express</t>
   </si>
   <si>
@@ -250,6 +280,18 @@
     <t>Software Engineer</t>
   </si>
   <si>
+    <t>12(11 base)</t>
+  </si>
+  <si>
+    <t>30k/mo</t>
+  </si>
+  <si>
+    <t>CS-All branches ECE/EIC/EE/ENC/EEC</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
     <t>Playsimple</t>
   </si>
   <si>
@@ -259,18 +301,15 @@
     <t>14(13 base)</t>
   </si>
   <si>
-    <t>30k/mo</t>
+    <t>CS-All Branches ECE/ENC/EEC</t>
+  </si>
+  <si>
+    <t>6.5CG+</t>
   </si>
   <si>
     <t>Bangalore(Domlur)</t>
   </si>
   <si>
-    <t>6.5CG+</t>
-  </si>
-  <si>
-    <t>CS-All Branches ECE/ENC/EEC</t>
-  </si>
-  <si>
     <t>Business Analyst</t>
   </si>
   <si>
@@ -286,31 +325,22 @@
     <t>Gurugram/Noida</t>
   </si>
   <si>
-    <t>8CG+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fastenal </t>
   </si>
   <si>
     <t>17(15 base)</t>
   </si>
   <si>
-    <t>45k/mo</t>
-  </si>
-  <si>
     <t>CS-All Branches ECE/ENC/EEC/EIC/EE</t>
   </si>
   <si>
-    <t>Wayfair</t>
-  </si>
-  <si>
-    <t>25(23 base)</t>
-  </si>
-  <si>
     <t>GamesKraft</t>
   </si>
   <si>
-    <t>32+iphone</t>
+    <t>32(18 base)+iphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-All Branches ENC </t>
   </si>
   <si>
     <t>Oracle</t>
@@ -319,12 +349,12 @@
     <t>19.5(14.5 base)</t>
   </si>
   <si>
+    <t>CS- All branhces ENC/ECE/EEC/EIC/EE/</t>
+  </si>
+  <si>
     <t>Not given</t>
   </si>
   <si>
-    <t>CS- All branhces ENC/ECE/EEC/EIC/EE/</t>
-  </si>
-  <si>
     <t>Airtel</t>
   </si>
   <si>
@@ -340,12 +370,12 @@
     <t>15(13 base)</t>
   </si>
   <si>
+    <t>CS- All branhces ENC/ECE/EEC</t>
+  </si>
+  <si>
     <t>Gurgaon</t>
   </si>
   <si>
-    <t>CS- All branhces ENC/ECE/EEC</t>
-  </si>
-  <si>
     <t>Siemens SPEL</t>
   </si>
   <si>
@@ -358,18 +388,33 @@
     <t>Boston Scientific</t>
   </si>
   <si>
+    <t>Not mentioned</t>
+  </si>
+  <si>
+    <t>CS-All branches ENC/EEC</t>
+  </si>
+  <si>
     <t>Apple(Intern-Only)</t>
   </si>
   <si>
     <t>90k/mo +10k/mo + 80k(Reloc)</t>
   </si>
   <si>
+    <t>CS-All branches ENC/EEC/EIC/EE/ECE</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
     <t xml:space="preserve">JP Morgan </t>
   </si>
   <si>
     <t>Banking(Intern-Only)</t>
   </si>
   <si>
+    <t>Mumbai/Bangalore</t>
+  </si>
+  <si>
     <t>Payments(Intern-Only)</t>
   </si>
   <si>
@@ -397,9 +442,36 @@
     <t>Market Analyst</t>
   </si>
   <si>
+    <t>14(10 base)</t>
+  </si>
+  <si>
+    <t>20k/mo</t>
+  </si>
+  <si>
+    <t>all Branches</t>
+  </si>
+  <si>
+    <t>5CG+</t>
+  </si>
+  <si>
+    <t>Mumbai/Kokata/Bangalore/Gurgaon</t>
+  </si>
+  <si>
     <t>ProcDNA</t>
   </si>
   <si>
+    <t>11(base 7.5)</t>
+  </si>
+  <si>
+    <t>22k/mo</t>
+  </si>
+  <si>
+    <t>CS- All branches ECE/EE/EIC/ENC/EEC/MECHA/MECH/BMD</t>
+  </si>
+  <si>
+    <t>Gurgaon/Pune</t>
+  </si>
+  <si>
     <t>Data Science</t>
   </si>
   <si>
@@ -409,36 +481,78 @@
     <t>13-14</t>
   </si>
   <si>
+    <t>CS-All Branches ENC/ECE</t>
+  </si>
+  <si>
+    <t>No Cg criteria</t>
+  </si>
+  <si>
     <t>Rubrik</t>
   </si>
   <si>
     <t>SDE(Intern-Only)</t>
   </si>
   <si>
+    <t>175k/mo</t>
+  </si>
+  <si>
     <t>CaaStle</t>
   </si>
   <si>
     <t>SDE(Female-Only)</t>
   </si>
   <si>
+    <t>27.5k/mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-All branches </t>
+  </si>
+  <si>
+    <t>Bengaluru/Delhi</t>
+  </si>
+  <si>
     <t>WriteSonic</t>
   </si>
   <si>
     <t>14-18</t>
   </si>
   <si>
+    <t>40-50k/mo</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
     <t>Warner Bros</t>
   </si>
   <si>
+    <t>80k/mo</t>
+  </si>
+  <si>
+    <t>Bengaluru/Hyderabad</t>
+  </si>
+  <si>
     <t>ZS</t>
   </si>
   <si>
     <t>Analyst</t>
   </si>
   <si>
+    <t>13.65(8.5 base)</t>
+  </si>
+  <si>
+    <t>CS-All branches ECE/EE/EIC/ENC/EEC</t>
+  </si>
+  <si>
     <t>Future First</t>
   </si>
   <si>
+    <t>CS-All branches ENC/ECE/EE/EEC/EIC/MECHA/MECH/BME</t>
+  </si>
+  <si>
+    <t>No CG Criteria</t>
+  </si>
+  <si>
     <t>ARM</t>
   </si>
   <si>
@@ -457,9 +571,6 @@
     <t>34(20 base)</t>
   </si>
   <si>
-    <t>No CG Criteria</t>
-  </si>
-  <si>
     <t>CS- All branches ENC/ECE/EIC/EE/EEC</t>
   </si>
   <si>
@@ -478,15 +589,12 @@
     <t>Loreal Paris</t>
   </si>
   <si>
-    <t>20k/mo</t>
+    <t>Chem/EE/EIC/EEC/ME</t>
   </si>
   <si>
     <t>Baddi(HImachal Pradesh)</t>
   </si>
   <si>
-    <t>Chem/EE/EIC/EEC/ME</t>
-  </si>
-  <si>
     <t>Viscadia</t>
   </si>
   <si>
@@ -514,16 +622,10 @@
     <t>Chennai/Hyderbad/Bangalore</t>
   </si>
   <si>
-    <t xml:space="preserve">CS-All branches </t>
-  </si>
-  <si>
     <t>Amadeus Labs</t>
   </si>
   <si>
     <t xml:space="preserve">Graduate Engineer </t>
-  </si>
-  <si>
-    <t>7.5CG+</t>
   </si>
   <si>
     <t>CS-All branches ENC/ECE/EEC/EE</t>
@@ -559,9 +661,6 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>CS-All branches</t>
-  </si>
-  <si>
     <t>1Lakh payment if u resign after intern</t>
   </si>
   <si>
@@ -583,12 +682,12 @@
     <t>18.5(15.5 base)</t>
   </si>
   <si>
+    <t>CS-All branches ENC/EEC/ECE/EE/EIC</t>
+  </si>
+  <si>
     <t>Gurgaon/Hyderbad</t>
   </si>
   <si>
-    <t>CS-All branches ENC/EEC/ECE/EE/EIC</t>
-  </si>
-  <si>
     <t>Career India</t>
   </si>
   <si>
@@ -616,39 +715,39 @@
     <t>10(9 base)</t>
   </si>
   <si>
+    <t>CS- All branches</t>
+  </si>
+  <si>
+    <t>7 Cg+, 80% in 12th</t>
+  </si>
+  <si>
     <t>New Delhi</t>
   </si>
   <si>
-    <t>7 Cg+, 80% in 12th</t>
-  </si>
-  <si>
-    <t>CS- All branches</t>
-  </si>
-  <si>
     <t>UKG</t>
   </si>
   <si>
     <t>21(15.5 base)</t>
   </si>
   <si>
+    <t>CS-All branches ENC/ECE</t>
+  </si>
+  <si>
     <t>Noida</t>
   </si>
   <si>
-    <t>CS-All branches ENC/ECE</t>
-  </si>
-  <si>
     <t>Siemens EDA Pvt. Ltd.</t>
   </si>
   <si>
     <t>24(16.5 base)</t>
   </si>
   <si>
+    <t>CS- All branches ENC/EEC/EIC/ECE/EE</t>
+  </si>
+  <si>
     <t>Noida/Bangalore/Kolkata</t>
   </si>
   <si>
-    <t>CS- All branches ENC/EEC/EIC/ECE/EE</t>
-  </si>
-  <si>
     <t>SDE(OS Role)</t>
   </si>
   <si>
@@ -697,12 +796,12 @@
     <t>Junior Analyst Developer</t>
   </si>
   <si>
+    <t>CS- All Branches ECE/ENC/EEC</t>
+  </si>
+  <si>
     <t>8.4CG+</t>
   </si>
   <si>
-    <t>CS- All Branches ECE/ENC/EEC</t>
-  </si>
-  <si>
     <t>Junior Analyst Developer FNZ Studio</t>
   </si>
   <si>
@@ -727,12 +826,12 @@
     <t>15k/mo</t>
   </si>
   <si>
+    <t>CS- All branches ENC/EEC</t>
+  </si>
+  <si>
     <t>Mohali/Chandigrah/Delhi</t>
   </si>
   <si>
-    <t>CS- All branches ENC/EEC</t>
-  </si>
-  <si>
     <t>Barco</t>
   </si>
   <si>
@@ -754,24 +853,24 @@
     <t>shared later</t>
   </si>
   <si>
+    <t>CSE/COE/EE/EIC/ECE/ENC</t>
+  </si>
+  <si>
     <t>Bangalore/Pune/Mohali/Hyderabad</t>
   </si>
   <si>
-    <t>CSE/COE/EE/EIC/ECE/ENC</t>
-  </si>
-  <si>
     <t>Stone Wein Systems</t>
   </si>
   <si>
     <t>11(9 base)</t>
   </si>
   <si>
+    <t>CS- All branches ENC</t>
+  </si>
+  <si>
     <t>Chandigarh/Pune</t>
   </si>
   <si>
-    <t>CS- All branches ENC</t>
-  </si>
-  <si>
     <t>2  lakh if u resign before 1 year</t>
   </si>
   <si>
@@ -781,12 +880,12 @@
     <t>9(CTC mentioned only)</t>
   </si>
   <si>
+    <t>CS- All Branches</t>
+  </si>
+  <si>
     <t>Pune/Hyderabad/Bengaluru</t>
   </si>
   <si>
-    <t>CS- All Branches</t>
-  </si>
-  <si>
     <t>Advantage Club</t>
   </si>
   <si>
@@ -820,9 +919,6 @@
     <t>65k/mo + 50k reloc</t>
   </si>
   <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
     <t>7.50CG+</t>
   </si>
   <si>
@@ -838,6 +934,12 @@
     <t>Young Technical Leader</t>
   </si>
   <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>CS- All branches/ECE/EIC/EE/ENC/EEC</t>
+  </si>
+  <si>
     <t>Accenture</t>
   </si>
   <si>
@@ -877,15 +979,15 @@
     <t>GPU Architecture Team</t>
   </si>
   <si>
+    <t>CS-All bramches/EE/EIC/ECE/ENC/EEC</t>
+  </si>
+  <si>
+    <t>7.8CG+</t>
+  </si>
+  <si>
     <t>Hyderabad/Pune/Bangalore</t>
   </si>
   <si>
-    <t>7.8CG+</t>
-  </si>
-  <si>
-    <t>CS-All bramches/EE/EIC/ECE/ENC/EEC</t>
-  </si>
-  <si>
     <t>Infra Team</t>
   </si>
   <si>
@@ -913,12 +1015,12 @@
     <t>MG Motor India</t>
   </si>
   <si>
+    <t>EE/EIC/ECE/ENC/EEC/MECH/MECHA</t>
+  </si>
+  <si>
     <t>Gurugram/Halol/Mumbai/Bamgalore</t>
   </si>
   <si>
-    <t>EE/EIC/ECE/ENC/EEC/MECH/MECHA</t>
-  </si>
-  <si>
     <t>Atkins Realis</t>
   </si>
   <si>
@@ -976,12 +1078,12 @@
     <t>0k/mo(unpaid intern)</t>
   </si>
   <si>
+    <t>EE/ECE/MECH/MECHA</t>
+  </si>
+  <si>
     <t>Ahmednagar</t>
   </si>
   <si>
-    <t>EE/ECE/MECH/MECHA</t>
-  </si>
-  <si>
     <t>NuvertOS</t>
   </si>
   <si>
@@ -997,13 +1099,115 @@
     <t>42.5k/mo</t>
   </si>
   <si>
+    <t>ECE</t>
+  </si>
+  <si>
     <t>Noida/Bangalore/Pune/Hyderabad</t>
   </si>
   <si>
-    <t>ECE</t>
-  </si>
-  <si>
     <t>Analog &amp; Software Engineer</t>
+  </si>
+  <si>
+    <t>YASKAWA India Private Limited</t>
+  </si>
+  <si>
+    <t>GET Under Sales</t>
+  </si>
+  <si>
+    <t>Gurgaon/Punjab/Delhi NCR</t>
+  </si>
+  <si>
+    <t>Ciena</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>14(base12.3)</t>
+  </si>
+  <si>
+    <t>37.5k/mo</t>
+  </si>
+  <si>
+    <t>Nutanix</t>
+  </si>
+  <si>
+    <t>Core Engineer</t>
+  </si>
+  <si>
+    <t>52.7(25 base)</t>
+  </si>
+  <si>
+    <t>CS- All branches EEC/ENC</t>
+  </si>
+  <si>
+    <t>Bengaluru/Pune</t>
+  </si>
+  <si>
+    <t>Other Products Engineer</t>
+  </si>
+  <si>
+    <t>50(23 base)</t>
+  </si>
+  <si>
+    <t>CS-All branches EEC/ENC</t>
+  </si>
+  <si>
+    <t>Samsung R&amp;D</t>
+  </si>
+  <si>
+    <t>SDE Intern</t>
+  </si>
+  <si>
+    <t>CS-All branches ECE/ENC/EE/EEC</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Wayfair</t>
+  </si>
+  <si>
+    <t>25(23 base)</t>
+  </si>
+  <si>
+    <t>Spectra Medics</t>
+  </si>
+  <si>
+    <t>9( 8 base)</t>
+  </si>
+  <si>
+    <t>CS- All branhces/ENC</t>
+  </si>
+  <si>
+    <t>Bond- 24 months</t>
+  </si>
+  <si>
+    <t>Incedo</t>
+  </si>
+  <si>
+    <t>OCtober</t>
+  </si>
+  <si>
+    <t>CS- All branches/ENC/EEC</t>
+  </si>
+  <si>
+    <t>Kickdrum</t>
+  </si>
+  <si>
+    <t>15(10 base)</t>
+  </si>
+  <si>
+    <t>35k/mo</t>
+  </si>
+  <si>
+    <t>Graymener</t>
+  </si>
+  <si>
+    <t>Data Enzineer</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1024,6 +1228,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1050,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1058,12 +1266,24 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1288,9 +1508,9 @@
     <col customWidth="1" min="5" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="37.38"/>
     <col customWidth="1" min="7" max="7" width="26.25"/>
-    <col customWidth="1" min="8" max="8" width="32.13"/>
+    <col customWidth="1" min="8" max="8" width="48.13"/>
     <col customWidth="1" min="9" max="9" width="23.88"/>
-    <col customWidth="1" min="10" max="10" width="48.13"/>
+    <col customWidth="1" min="10" max="10" width="32.13"/>
     <col customWidth="1" min="11" max="11" width="30.38"/>
   </cols>
   <sheetData>
@@ -1310,7 +1530,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1342,7 +1562,7 @@
       <c r="E2" s="1">
         <v>10.0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1371,20 +1591,20 @@
       <c r="E3" s="1">
         <v>33.0</v>
       </c>
-      <c r="F3" s="1">
-        <v>18.0</v>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -1392,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -1400,20 +1620,20 @@
       <c r="E4" s="1">
         <v>30.0</v>
       </c>
-      <c r="F4" s="1">
-        <v>18.0</v>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1421,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -1429,20 +1649,20 @@
       <c r="E5" s="1">
         <v>4.0</v>
       </c>
-      <c r="F5" s="1">
-        <v>18.0</v>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1450,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1458,20 +1678,20 @@
       <c r="E6" s="1">
         <v>3.0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>22.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1479,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -1487,538 +1707,541 @@
       <c r="E7" s="1">
         <v>10.0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>22.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>3.0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>9.5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>5.0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>2.0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>14.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>2.0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>14.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v>3.0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>14.0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>2.0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>14.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>1.0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>14.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1">
         <v>3.0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>14.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>1.0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>14.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1">
         <v>3.0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>14.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1">
         <v>2.0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>14.0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
         <v>5.0</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>14.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1">
         <v>3.0</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>14.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1">
         <v>2.0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>14.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1">
         <v>2.0</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>14.0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1">
         <v>1.0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>14.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
         <v>1.0</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>14.0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1">
         <v>4.0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>60</v>
+      <c r="F25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
@@ -2026,44 +2249,80 @@
       <c r="E26" s="1">
         <v>1.0</v>
       </c>
-      <c r="F26" s="1">
-        <v>20.0</v>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="1">
-        <v>17.3</v>
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1">
-        <v>17.3</v>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -2071,28 +2330,28 @@
       <c r="E29" s="1">
         <v>5.0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>21</v>
@@ -2100,43 +2359,55 @@
       <c r="E30" s="1">
         <v>2.0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>74</v>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>12.0</v>
+      <c r="F31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>21</v>
@@ -2144,28 +2415,28 @@
       <c r="E32" s="1">
         <v>1.0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>81</v>
+      <c r="F32" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
@@ -2173,54 +2444,54 @@
       <c r="E33" s="1">
         <v>1.0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>81</v>
+      <c r="F33" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>88</v>
+      <c r="F34" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>21</v>
@@ -2228,254 +2499,326 @@
       <c r="E35" s="1">
         <v>5.0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>93</v>
+      <c r="F35" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>97</v>
+      <c r="E36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>99</v>
+        <v>8.0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>101</v>
+        <v>6.0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>105</v>
+      <c r="F39" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>108</v>
+      <c r="F40" s="2">
+        <v>6.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>6.0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="1">
-        <v>6.0</v>
+      <c r="E42" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>14.0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>116</v>
+      <c r="F44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F45" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E46" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>21</v>
@@ -2483,1904 +2826,4931 @@
       <c r="E47" s="1">
         <v>6.0</v>
       </c>
+      <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="1">
-        <v>6.0</v>
+      <c r="F48" s="2">
+        <v>9.0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="1">
-        <v>9.0</v>
+      <c r="F49" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="1">
-        <v>7.0</v>
+      <c r="F50" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="1">
-        <v>3.3</v>
+      <c r="F51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="1">
-        <v>14.0</v>
+      <c r="E52" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="2">
         <v>11.0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>11.0</v>
+      <c r="F54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>131</v>
+      <c r="F55" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="1">
-        <v>45.0</v>
+      <c r="F56" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="1">
-        <v>22.0</v>
+      <c r="F57" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>137</v>
+      <c r="E58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="1">
-        <v>18.0</v>
+      <c r="E59" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>13.65</v>
+      <c r="F60" s="2">
+        <v>13.38</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="1">
-        <v>13.38</v>
+      <c r="F61" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>15.75</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="1">
-        <v>15.75</v>
+      <c r="E63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>147</v>
+        <v>5.0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>151</v>
+      <c r="F65" s="2">
+        <v>11.0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="1" t="s">
-        <v>154</v>
+        <v>194</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="1">
-        <v>11.0</v>
+      <c r="F66" s="2">
+        <v>12.2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>159</v>
+      <c r="F67" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="1">
-        <v>7.5</v>
+      <c r="E68" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>8.1</v>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2">
+        <v>13.0</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="1" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <v>13.0</v>
+      <c r="F70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>165</v>
+      <c r="E71" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>12.62</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>12.62</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="F72" s="6"/>
     </row>
     <row r="73">
       <c r="B73" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="1" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1">
-        <v>13.2</v>
+        <v>210</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="E75" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>178</v>
+        <v>3.0</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="1" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>183</v>
+        <v>88</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="E76" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>184</v>
+        <v>67.0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E77" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>192</v>
+        <v>226</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F79" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>194</v>
+        <v>228</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="H79" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="1" t="s">
-        <v>195</v>
+        <v>230</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="1" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="1" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="1" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="1" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="1" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="1" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45514.0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F88" s="3">
-        <v>45514.0</v>
+      <c r="F88" s="2">
+        <v>16.0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F89" s="1">
+        <v>216</v>
+      </c>
+      <c r="F89" s="2">
         <v>16.0</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F90" s="1">
-        <v>16.0</v>
+        <v>216</v>
+      </c>
+      <c r="F90" s="2">
+        <v>17.0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="1">
-        <v>17.0</v>
+        <v>216</v>
+      </c>
+      <c r="F91" s="2">
+        <v>14.0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F92" s="1">
-        <v>14.0</v>
+        <v>216</v>
+      </c>
+      <c r="F92" s="2">
+        <v>11.0</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F93" s="1">
-        <v>11.0</v>
+        <v>216</v>
+      </c>
+      <c r="F93" s="2">
+        <v>10.0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="1" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F94" s="1">
-        <v>10.0</v>
+        <v>216</v>
+      </c>
+      <c r="F94" s="2">
+        <v>11.0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="1" t="s">
-        <v>232</v>
+        <v>266</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="1">
-        <v>11.0</v>
+        <v>216</v>
+      </c>
+      <c r="F95" s="2">
+        <v>10.0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F96" s="1">
-        <v>10.0</v>
+        <v>216</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45481.0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>240</v>
+        <v>62</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F98" s="3">
-        <v>45481.0</v>
+        <v>216</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="1" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>246</v>
+        <v>283</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="1" t="s">
-        <v>247</v>
+        <v>285</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>248</v>
+        <v>216</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>253</v>
+        <v>216</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>258</v>
+        <v>216</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>70</v>
+        <v>144</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>230</v>
+        <v>292</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>258</v>
+        <v>216</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>230</v>
+        <v>144</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="1" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>262</v>
+        <v>216</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>230</v>
+        <v>299</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>264</v>
+        <v>296</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>268</v>
+        <v>216</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>264</v>
+        <v>303</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>209</v>
+      <c r="I106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="1" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E107" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>105</v>
+        <v>33.0</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="1" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>275</v>
+        <v>216</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>276</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="1" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
-      <c r="B110" s="4" t="s">
-        <v>277</v>
+      <c r="B110" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="4" t="s">
-        <v>277</v>
+      <c r="B111" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
-      <c r="B112" s="4" t="s">
-        <v>277</v>
+      <c r="B112" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F113" s="1">
+        <v>216</v>
+      </c>
+      <c r="F113" s="2">
         <v>28.99</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F114" s="1">
+        <v>216</v>
+      </c>
+      <c r="F114" s="2">
         <v>28.99</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F115" s="1">
+        <v>216</v>
+      </c>
+      <c r="F115" s="2">
         <v>28.99</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F116" s="1">
+        <v>216</v>
+      </c>
+      <c r="F116" s="2">
         <v>28.99</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F117" s="1">
+        <v>216</v>
+      </c>
+      <c r="F117" s="2">
         <v>28.99</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F118" s="1">
+        <v>216</v>
+      </c>
+      <c r="F118" s="2">
         <v>28.99</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="1" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" s="1">
+        <v>216</v>
+      </c>
+      <c r="F119" s="2">
         <v>12.5</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="1" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" s="1">
+        <v>216</v>
+      </c>
+      <c r="F120" s="2">
         <v>9.0</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>296</v>
+        <v>69</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="1" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121" s="1">
+        <v>216</v>
+      </c>
+      <c r="F121" s="2">
         <v>7.0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="1" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F122" s="1">
+        <v>216</v>
+      </c>
+      <c r="F122" s="2">
         <v>5.7</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>301</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="1" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F123" s="1">
+        <v>216</v>
+      </c>
+      <c r="F123" s="2">
         <v>10.0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="1" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>306</v>
+        <v>216</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>307</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="1" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>36</v>
+        <v>344</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>312</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F126" s="1">
+        <v>347</v>
+      </c>
+      <c r="F126" s="2">
         <v>7.0</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>106</v>
+        <v>348</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>314</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F127" s="1">
+        <v>349</v>
+      </c>
+      <c r="F127" s="2">
         <v>6.0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F128" s="1">
+        <v>351</v>
+      </c>
+      <c r="F128" s="2">
         <v>7.0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F129" s="3">
+        <v>355</v>
+      </c>
+      <c r="F129" s="7">
         <v>45577.0</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="1" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F130" s="1">
+        <v>358</v>
+      </c>
+      <c r="F130" s="2">
         <v>15.5</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>326</v>
+        <v>359</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>327</v>
+        <v>74</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="131">
-      <c r="B131" s="4" t="s">
-        <v>323</v>
+      <c r="B131" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F131" s="1">
+        <v>362</v>
+      </c>
+      <c r="F131" s="2">
         <v>15.5</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>326</v>
+        <v>359</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>327</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45418.0</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F139" s="2">
+        <v>7.55</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F141" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F142" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145">
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146">
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149">
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154">
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155">
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156">
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157">
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158">
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159">
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160">
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161">
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162">
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163">
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164">
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165">
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166">
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167">
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168">
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173">
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174">
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175">
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176">
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177">
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178">
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179">
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180">
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181">
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182">
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183">
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184">
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185">
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186">
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187">
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188">
+      <c r="F188" s="6"/>
+    </row>
+    <row r="189">
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190">
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191">
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192">
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193">
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194">
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195">
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196">
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197">
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198">
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200">
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201">
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202">
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203">
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204">
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205">
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206">
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207">
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208">
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209">
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210">
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211">
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212">
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213">
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214">
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215">
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216">
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217">
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="F236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="F243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247">
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248">
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249">
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250">
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251">
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252">
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253">
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254">
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255">
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256">
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257">
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258">
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259">
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260">
+      <c r="F260" s="6"/>
+    </row>
+    <row r="261">
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262">
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263">
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264">
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265">
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266">
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267">
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268">
+      <c r="F268" s="6"/>
+    </row>
+    <row r="269">
+      <c r="F269" s="6"/>
+    </row>
+    <row r="270">
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271">
+      <c r="F271" s="6"/>
+    </row>
+    <row r="272">
+      <c r="F272" s="6"/>
+    </row>
+    <row r="273">
+      <c r="F273" s="6"/>
+    </row>
+    <row r="274">
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275">
+      <c r="F275" s="6"/>
+    </row>
+    <row r="276">
+      <c r="F276" s="6"/>
+    </row>
+    <row r="277">
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278">
+      <c r="F278" s="6"/>
+    </row>
+    <row r="279">
+      <c r="F279" s="6"/>
+    </row>
+    <row r="280">
+      <c r="F280" s="6"/>
+    </row>
+    <row r="281">
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282">
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283">
+      <c r="F283" s="6"/>
+    </row>
+    <row r="284">
+      <c r="F284" s="6"/>
+    </row>
+    <row r="285">
+      <c r="F285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="F286" s="6"/>
+    </row>
+    <row r="287">
+      <c r="F287" s="6"/>
+    </row>
+    <row r="288">
+      <c r="F288" s="6"/>
+    </row>
+    <row r="289">
+      <c r="F289" s="6"/>
+    </row>
+    <row r="290">
+      <c r="F290" s="6"/>
+    </row>
+    <row r="291">
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292">
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293">
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294">
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295">
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296">
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297">
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298">
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299">
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300">
+      <c r="F300" s="6"/>
+    </row>
+    <row r="301">
+      <c r="F301" s="6"/>
+    </row>
+    <row r="302">
+      <c r="F302" s="6"/>
+    </row>
+    <row r="303">
+      <c r="F303" s="6"/>
+    </row>
+    <row r="304">
+      <c r="F304" s="6"/>
+    </row>
+    <row r="305">
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306">
+      <c r="F306" s="6"/>
+    </row>
+    <row r="307">
+      <c r="F307" s="6"/>
+    </row>
+    <row r="308">
+      <c r="F308" s="6"/>
+    </row>
+    <row r="309">
+      <c r="F309" s="6"/>
+    </row>
+    <row r="310">
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311">
+      <c r="F311" s="6"/>
+    </row>
+    <row r="312">
+      <c r="F312" s="6"/>
+    </row>
+    <row r="313">
+      <c r="F313" s="6"/>
+    </row>
+    <row r="314">
+      <c r="F314" s="6"/>
+    </row>
+    <row r="315">
+      <c r="F315" s="6"/>
+    </row>
+    <row r="316">
+      <c r="F316" s="6"/>
+    </row>
+    <row r="317">
+      <c r="F317" s="6"/>
+    </row>
+    <row r="318">
+      <c r="F318" s="6"/>
+    </row>
+    <row r="319">
+      <c r="F319" s="6"/>
+    </row>
+    <row r="320">
+      <c r="F320" s="6"/>
+    </row>
+    <row r="321">
+      <c r="F321" s="6"/>
+    </row>
+    <row r="322">
+      <c r="F322" s="6"/>
+    </row>
+    <row r="323">
+      <c r="F323" s="6"/>
+    </row>
+    <row r="324">
+      <c r="F324" s="6"/>
+    </row>
+    <row r="325">
+      <c r="F325" s="6"/>
+    </row>
+    <row r="326">
+      <c r="F326" s="6"/>
+    </row>
+    <row r="327">
+      <c r="F327" s="6"/>
+    </row>
+    <row r="328">
+      <c r="F328" s="6"/>
+    </row>
+    <row r="329">
+      <c r="F329" s="6"/>
+    </row>
+    <row r="330">
+      <c r="F330" s="6"/>
+    </row>
+    <row r="331">
+      <c r="F331" s="6"/>
+    </row>
+    <row r="332">
+      <c r="F332" s="6"/>
+    </row>
+    <row r="333">
+      <c r="F333" s="6"/>
+    </row>
+    <row r="334">
+      <c r="F334" s="6"/>
+    </row>
+    <row r="335">
+      <c r="F335" s="6"/>
+    </row>
+    <row r="336">
+      <c r="F336" s="6"/>
+    </row>
+    <row r="337">
+      <c r="F337" s="6"/>
+    </row>
+    <row r="338">
+      <c r="F338" s="6"/>
+    </row>
+    <row r="339">
+      <c r="F339" s="6"/>
+    </row>
+    <row r="340">
+      <c r="F340" s="6"/>
+    </row>
+    <row r="341">
+      <c r="F341" s="6"/>
+    </row>
+    <row r="342">
+      <c r="F342" s="6"/>
+    </row>
+    <row r="343">
+      <c r="F343" s="6"/>
+    </row>
+    <row r="344">
+      <c r="F344" s="6"/>
+    </row>
+    <row r="345">
+      <c r="F345" s="6"/>
+    </row>
+    <row r="346">
+      <c r="F346" s="6"/>
+    </row>
+    <row r="347">
+      <c r="F347" s="6"/>
+    </row>
+    <row r="348">
+      <c r="F348" s="6"/>
+    </row>
+    <row r="349">
+      <c r="F349" s="6"/>
+    </row>
+    <row r="350">
+      <c r="F350" s="6"/>
+    </row>
+    <row r="351">
+      <c r="F351" s="6"/>
+    </row>
+    <row r="352">
+      <c r="F352" s="6"/>
+    </row>
+    <row r="353">
+      <c r="F353" s="6"/>
+    </row>
+    <row r="354">
+      <c r="F354" s="6"/>
+    </row>
+    <row r="355">
+      <c r="F355" s="6"/>
+    </row>
+    <row r="356">
+      <c r="F356" s="6"/>
+    </row>
+    <row r="357">
+      <c r="F357" s="6"/>
+    </row>
+    <row r="358">
+      <c r="F358" s="6"/>
+    </row>
+    <row r="359">
+      <c r="F359" s="6"/>
+    </row>
+    <row r="360">
+      <c r="F360" s="6"/>
+    </row>
+    <row r="361">
+      <c r="F361" s="6"/>
+    </row>
+    <row r="362">
+      <c r="F362" s="6"/>
+    </row>
+    <row r="363">
+      <c r="F363" s="6"/>
+    </row>
+    <row r="364">
+      <c r="F364" s="6"/>
+    </row>
+    <row r="365">
+      <c r="F365" s="6"/>
+    </row>
+    <row r="366">
+      <c r="F366" s="6"/>
+    </row>
+    <row r="367">
+      <c r="F367" s="6"/>
+    </row>
+    <row r="368">
+      <c r="F368" s="6"/>
+    </row>
+    <row r="369">
+      <c r="F369" s="6"/>
+    </row>
+    <row r="370">
+      <c r="F370" s="6"/>
+    </row>
+    <row r="371">
+      <c r="F371" s="6"/>
+    </row>
+    <row r="372">
+      <c r="F372" s="6"/>
+    </row>
+    <row r="373">
+      <c r="F373" s="6"/>
+    </row>
+    <row r="374">
+      <c r="F374" s="6"/>
+    </row>
+    <row r="375">
+      <c r="F375" s="6"/>
+    </row>
+    <row r="376">
+      <c r="F376" s="6"/>
+    </row>
+    <row r="377">
+      <c r="F377" s="6"/>
+    </row>
+    <row r="378">
+      <c r="F378" s="6"/>
+    </row>
+    <row r="379">
+      <c r="F379" s="6"/>
+    </row>
+    <row r="380">
+      <c r="F380" s="6"/>
+    </row>
+    <row r="381">
+      <c r="F381" s="6"/>
+    </row>
+    <row r="382">
+      <c r="F382" s="6"/>
+    </row>
+    <row r="383">
+      <c r="F383" s="6"/>
+    </row>
+    <row r="384">
+      <c r="F384" s="6"/>
+    </row>
+    <row r="385">
+      <c r="F385" s="6"/>
+    </row>
+    <row r="386">
+      <c r="F386" s="6"/>
+    </row>
+    <row r="387">
+      <c r="F387" s="6"/>
+    </row>
+    <row r="388">
+      <c r="F388" s="6"/>
+    </row>
+    <row r="389">
+      <c r="F389" s="6"/>
+    </row>
+    <row r="390">
+      <c r="F390" s="6"/>
+    </row>
+    <row r="391">
+      <c r="F391" s="6"/>
+    </row>
+    <row r="392">
+      <c r="F392" s="6"/>
+    </row>
+    <row r="393">
+      <c r="F393" s="6"/>
+    </row>
+    <row r="394">
+      <c r="F394" s="6"/>
+    </row>
+    <row r="395">
+      <c r="F395" s="6"/>
+    </row>
+    <row r="396">
+      <c r="F396" s="6"/>
+    </row>
+    <row r="397">
+      <c r="F397" s="6"/>
+    </row>
+    <row r="398">
+      <c r="F398" s="6"/>
+    </row>
+    <row r="399">
+      <c r="F399" s="6"/>
+    </row>
+    <row r="400">
+      <c r="F400" s="6"/>
+    </row>
+    <row r="401">
+      <c r="F401" s="6"/>
+    </row>
+    <row r="402">
+      <c r="F402" s="6"/>
+    </row>
+    <row r="403">
+      <c r="F403" s="6"/>
+    </row>
+    <row r="404">
+      <c r="F404" s="6"/>
+    </row>
+    <row r="405">
+      <c r="F405" s="6"/>
+    </row>
+    <row r="406">
+      <c r="F406" s="6"/>
+    </row>
+    <row r="407">
+      <c r="F407" s="6"/>
+    </row>
+    <row r="408">
+      <c r="F408" s="6"/>
+    </row>
+    <row r="409">
+      <c r="F409" s="6"/>
+    </row>
+    <row r="410">
+      <c r="F410" s="6"/>
+    </row>
+    <row r="411">
+      <c r="F411" s="6"/>
+    </row>
+    <row r="412">
+      <c r="F412" s="6"/>
+    </row>
+    <row r="413">
+      <c r="F413" s="6"/>
+    </row>
+    <row r="414">
+      <c r="F414" s="6"/>
+    </row>
+    <row r="415">
+      <c r="F415" s="6"/>
+    </row>
+    <row r="416">
+      <c r="F416" s="6"/>
+    </row>
+    <row r="417">
+      <c r="F417" s="6"/>
+    </row>
+    <row r="418">
+      <c r="F418" s="6"/>
+    </row>
+    <row r="419">
+      <c r="F419" s="6"/>
+    </row>
+    <row r="420">
+      <c r="F420" s="6"/>
+    </row>
+    <row r="421">
+      <c r="F421" s="6"/>
+    </row>
+    <row r="422">
+      <c r="F422" s="6"/>
+    </row>
+    <row r="423">
+      <c r="F423" s="6"/>
+    </row>
+    <row r="424">
+      <c r="F424" s="6"/>
+    </row>
+    <row r="425">
+      <c r="F425" s="6"/>
+    </row>
+    <row r="426">
+      <c r="F426" s="6"/>
+    </row>
+    <row r="427">
+      <c r="F427" s="6"/>
+    </row>
+    <row r="428">
+      <c r="F428" s="6"/>
+    </row>
+    <row r="429">
+      <c r="F429" s="6"/>
+    </row>
+    <row r="430">
+      <c r="F430" s="6"/>
+    </row>
+    <row r="431">
+      <c r="F431" s="6"/>
+    </row>
+    <row r="432">
+      <c r="F432" s="6"/>
+    </row>
+    <row r="433">
+      <c r="F433" s="6"/>
+    </row>
+    <row r="434">
+      <c r="F434" s="6"/>
+    </row>
+    <row r="435">
+      <c r="F435" s="6"/>
+    </row>
+    <row r="436">
+      <c r="F436" s="6"/>
+    </row>
+    <row r="437">
+      <c r="F437" s="6"/>
+    </row>
+    <row r="438">
+      <c r="F438" s="6"/>
+    </row>
+    <row r="439">
+      <c r="F439" s="6"/>
+    </row>
+    <row r="440">
+      <c r="F440" s="6"/>
+    </row>
+    <row r="441">
+      <c r="F441" s="6"/>
+    </row>
+    <row r="442">
+      <c r="F442" s="6"/>
+    </row>
+    <row r="443">
+      <c r="F443" s="6"/>
+    </row>
+    <row r="444">
+      <c r="F444" s="6"/>
+    </row>
+    <row r="445">
+      <c r="F445" s="6"/>
+    </row>
+    <row r="446">
+      <c r="F446" s="6"/>
+    </row>
+    <row r="447">
+      <c r="F447" s="6"/>
+    </row>
+    <row r="448">
+      <c r="F448" s="6"/>
+    </row>
+    <row r="449">
+      <c r="F449" s="6"/>
+    </row>
+    <row r="450">
+      <c r="F450" s="6"/>
+    </row>
+    <row r="451">
+      <c r="F451" s="6"/>
+    </row>
+    <row r="452">
+      <c r="F452" s="6"/>
+    </row>
+    <row r="453">
+      <c r="F453" s="6"/>
+    </row>
+    <row r="454">
+      <c r="F454" s="6"/>
+    </row>
+    <row r="455">
+      <c r="F455" s="6"/>
+    </row>
+    <row r="456">
+      <c r="F456" s="6"/>
+    </row>
+    <row r="457">
+      <c r="F457" s="6"/>
+    </row>
+    <row r="458">
+      <c r="F458" s="6"/>
+    </row>
+    <row r="459">
+      <c r="F459" s="6"/>
+    </row>
+    <row r="460">
+      <c r="F460" s="6"/>
+    </row>
+    <row r="461">
+      <c r="F461" s="6"/>
+    </row>
+    <row r="462">
+      <c r="F462" s="6"/>
+    </row>
+    <row r="463">
+      <c r="F463" s="6"/>
+    </row>
+    <row r="464">
+      <c r="F464" s="6"/>
+    </row>
+    <row r="465">
+      <c r="F465" s="6"/>
+    </row>
+    <row r="466">
+      <c r="F466" s="6"/>
+    </row>
+    <row r="467">
+      <c r="F467" s="6"/>
+    </row>
+    <row r="468">
+      <c r="F468" s="6"/>
+    </row>
+    <row r="469">
+      <c r="F469" s="6"/>
+    </row>
+    <row r="470">
+      <c r="F470" s="6"/>
+    </row>
+    <row r="471">
+      <c r="F471" s="6"/>
+    </row>
+    <row r="472">
+      <c r="F472" s="6"/>
+    </row>
+    <row r="473">
+      <c r="F473" s="6"/>
+    </row>
+    <row r="474">
+      <c r="F474" s="6"/>
+    </row>
+    <row r="475">
+      <c r="F475" s="6"/>
+    </row>
+    <row r="476">
+      <c r="F476" s="6"/>
+    </row>
+    <row r="477">
+      <c r="F477" s="6"/>
+    </row>
+    <row r="478">
+      <c r="F478" s="6"/>
+    </row>
+    <row r="479">
+      <c r="F479" s="6"/>
+    </row>
+    <row r="480">
+      <c r="F480" s="6"/>
+    </row>
+    <row r="481">
+      <c r="F481" s="6"/>
+    </row>
+    <row r="482">
+      <c r="F482" s="6"/>
+    </row>
+    <row r="483">
+      <c r="F483" s="6"/>
+    </row>
+    <row r="484">
+      <c r="F484" s="6"/>
+    </row>
+    <row r="485">
+      <c r="F485" s="6"/>
+    </row>
+    <row r="486">
+      <c r="F486" s="6"/>
+    </row>
+    <row r="487">
+      <c r="F487" s="6"/>
+    </row>
+    <row r="488">
+      <c r="F488" s="6"/>
+    </row>
+    <row r="489">
+      <c r="F489" s="6"/>
+    </row>
+    <row r="490">
+      <c r="F490" s="6"/>
+    </row>
+    <row r="491">
+      <c r="F491" s="6"/>
+    </row>
+    <row r="492">
+      <c r="F492" s="6"/>
+    </row>
+    <row r="493">
+      <c r="F493" s="6"/>
+    </row>
+    <row r="494">
+      <c r="F494" s="6"/>
+    </row>
+    <row r="495">
+      <c r="F495" s="6"/>
+    </row>
+    <row r="496">
+      <c r="F496" s="6"/>
+    </row>
+    <row r="497">
+      <c r="F497" s="6"/>
+    </row>
+    <row r="498">
+      <c r="F498" s="6"/>
+    </row>
+    <row r="499">
+      <c r="F499" s="6"/>
+    </row>
+    <row r="500">
+      <c r="F500" s="6"/>
+    </row>
+    <row r="501">
+      <c r="F501" s="6"/>
+    </row>
+    <row r="502">
+      <c r="F502" s="6"/>
+    </row>
+    <row r="503">
+      <c r="F503" s="6"/>
+    </row>
+    <row r="504">
+      <c r="F504" s="6"/>
+    </row>
+    <row r="505">
+      <c r="F505" s="6"/>
+    </row>
+    <row r="506">
+      <c r="F506" s="6"/>
+    </row>
+    <row r="507">
+      <c r="F507" s="6"/>
+    </row>
+    <row r="508">
+      <c r="F508" s="6"/>
+    </row>
+    <row r="509">
+      <c r="F509" s="6"/>
+    </row>
+    <row r="510">
+      <c r="F510" s="6"/>
+    </row>
+    <row r="511">
+      <c r="F511" s="6"/>
+    </row>
+    <row r="512">
+      <c r="F512" s="6"/>
+    </row>
+    <row r="513">
+      <c r="F513" s="6"/>
+    </row>
+    <row r="514">
+      <c r="F514" s="6"/>
+    </row>
+    <row r="515">
+      <c r="F515" s="6"/>
+    </row>
+    <row r="516">
+      <c r="F516" s="6"/>
+    </row>
+    <row r="517">
+      <c r="F517" s="6"/>
+    </row>
+    <row r="518">
+      <c r="F518" s="6"/>
+    </row>
+    <row r="519">
+      <c r="F519" s="6"/>
+    </row>
+    <row r="520">
+      <c r="F520" s="6"/>
+    </row>
+    <row r="521">
+      <c r="F521" s="6"/>
+    </row>
+    <row r="522">
+      <c r="F522" s="6"/>
+    </row>
+    <row r="523">
+      <c r="F523" s="6"/>
+    </row>
+    <row r="524">
+      <c r="F524" s="6"/>
+    </row>
+    <row r="525">
+      <c r="F525" s="6"/>
+    </row>
+    <row r="526">
+      <c r="F526" s="6"/>
+    </row>
+    <row r="527">
+      <c r="F527" s="6"/>
+    </row>
+    <row r="528">
+      <c r="F528" s="6"/>
+    </row>
+    <row r="529">
+      <c r="F529" s="6"/>
+    </row>
+    <row r="530">
+      <c r="F530" s="6"/>
+    </row>
+    <row r="531">
+      <c r="F531" s="6"/>
+    </row>
+    <row r="532">
+      <c r="F532" s="6"/>
+    </row>
+    <row r="533">
+      <c r="F533" s="6"/>
+    </row>
+    <row r="534">
+      <c r="F534" s="6"/>
+    </row>
+    <row r="535">
+      <c r="F535" s="6"/>
+    </row>
+    <row r="536">
+      <c r="F536" s="6"/>
+    </row>
+    <row r="537">
+      <c r="F537" s="6"/>
+    </row>
+    <row r="538">
+      <c r="F538" s="6"/>
+    </row>
+    <row r="539">
+      <c r="F539" s="6"/>
+    </row>
+    <row r="540">
+      <c r="F540" s="6"/>
+    </row>
+    <row r="541">
+      <c r="F541" s="6"/>
+    </row>
+    <row r="542">
+      <c r="F542" s="6"/>
+    </row>
+    <row r="543">
+      <c r="F543" s="6"/>
+    </row>
+    <row r="544">
+      <c r="F544" s="6"/>
+    </row>
+    <row r="545">
+      <c r="F545" s="6"/>
+    </row>
+    <row r="546">
+      <c r="F546" s="6"/>
+    </row>
+    <row r="547">
+      <c r="F547" s="6"/>
+    </row>
+    <row r="548">
+      <c r="F548" s="6"/>
+    </row>
+    <row r="549">
+      <c r="F549" s="6"/>
+    </row>
+    <row r="550">
+      <c r="F550" s="6"/>
+    </row>
+    <row r="551">
+      <c r="F551" s="6"/>
+    </row>
+    <row r="552">
+      <c r="F552" s="6"/>
+    </row>
+    <row r="553">
+      <c r="F553" s="6"/>
+    </row>
+    <row r="554">
+      <c r="F554" s="6"/>
+    </row>
+    <row r="555">
+      <c r="F555" s="6"/>
+    </row>
+    <row r="556">
+      <c r="F556" s="6"/>
+    </row>
+    <row r="557">
+      <c r="F557" s="6"/>
+    </row>
+    <row r="558">
+      <c r="F558" s="6"/>
+    </row>
+    <row r="559">
+      <c r="F559" s="6"/>
+    </row>
+    <row r="560">
+      <c r="F560" s="6"/>
+    </row>
+    <row r="561">
+      <c r="F561" s="6"/>
+    </row>
+    <row r="562">
+      <c r="F562" s="6"/>
+    </row>
+    <row r="563">
+      <c r="F563" s="6"/>
+    </row>
+    <row r="564">
+      <c r="F564" s="6"/>
+    </row>
+    <row r="565">
+      <c r="F565" s="6"/>
+    </row>
+    <row r="566">
+      <c r="F566" s="6"/>
+    </row>
+    <row r="567">
+      <c r="F567" s="6"/>
+    </row>
+    <row r="568">
+      <c r="F568" s="6"/>
+    </row>
+    <row r="569">
+      <c r="F569" s="6"/>
+    </row>
+    <row r="570">
+      <c r="F570" s="6"/>
+    </row>
+    <row r="571">
+      <c r="F571" s="6"/>
+    </row>
+    <row r="572">
+      <c r="F572" s="6"/>
+    </row>
+    <row r="573">
+      <c r="F573" s="6"/>
+    </row>
+    <row r="574">
+      <c r="F574" s="6"/>
+    </row>
+    <row r="575">
+      <c r="F575" s="6"/>
+    </row>
+    <row r="576">
+      <c r="F576" s="6"/>
+    </row>
+    <row r="577">
+      <c r="F577" s="6"/>
+    </row>
+    <row r="578">
+      <c r="F578" s="6"/>
+    </row>
+    <row r="579">
+      <c r="F579" s="6"/>
+    </row>
+    <row r="580">
+      <c r="F580" s="6"/>
+    </row>
+    <row r="581">
+      <c r="F581" s="6"/>
+    </row>
+    <row r="582">
+      <c r="F582" s="6"/>
+    </row>
+    <row r="583">
+      <c r="F583" s="6"/>
+    </row>
+    <row r="584">
+      <c r="F584" s="6"/>
+    </row>
+    <row r="585">
+      <c r="F585" s="6"/>
+    </row>
+    <row r="586">
+      <c r="F586" s="6"/>
+    </row>
+    <row r="587">
+      <c r="F587" s="6"/>
+    </row>
+    <row r="588">
+      <c r="F588" s="6"/>
+    </row>
+    <row r="589">
+      <c r="F589" s="6"/>
+    </row>
+    <row r="590">
+      <c r="F590" s="6"/>
+    </row>
+    <row r="591">
+      <c r="F591" s="6"/>
+    </row>
+    <row r="592">
+      <c r="F592" s="6"/>
+    </row>
+    <row r="593">
+      <c r="F593" s="6"/>
+    </row>
+    <row r="594">
+      <c r="F594" s="6"/>
+    </row>
+    <row r="595">
+      <c r="F595" s="6"/>
+    </row>
+    <row r="596">
+      <c r="F596" s="6"/>
+    </row>
+    <row r="597">
+      <c r="F597" s="6"/>
+    </row>
+    <row r="598">
+      <c r="F598" s="6"/>
+    </row>
+    <row r="599">
+      <c r="F599" s="6"/>
+    </row>
+    <row r="600">
+      <c r="F600" s="6"/>
+    </row>
+    <row r="601">
+      <c r="F601" s="6"/>
+    </row>
+    <row r="602">
+      <c r="F602" s="6"/>
+    </row>
+    <row r="603">
+      <c r="F603" s="6"/>
+    </row>
+    <row r="604">
+      <c r="F604" s="6"/>
+    </row>
+    <row r="605">
+      <c r="F605" s="6"/>
+    </row>
+    <row r="606">
+      <c r="F606" s="6"/>
+    </row>
+    <row r="607">
+      <c r="F607" s="6"/>
+    </row>
+    <row r="608">
+      <c r="F608" s="6"/>
+    </row>
+    <row r="609">
+      <c r="F609" s="6"/>
+    </row>
+    <row r="610">
+      <c r="F610" s="6"/>
+    </row>
+    <row r="611">
+      <c r="F611" s="6"/>
+    </row>
+    <row r="612">
+      <c r="F612" s="6"/>
+    </row>
+    <row r="613">
+      <c r="F613" s="6"/>
+    </row>
+    <row r="614">
+      <c r="F614" s="6"/>
+    </row>
+    <row r="615">
+      <c r="F615" s="6"/>
+    </row>
+    <row r="616">
+      <c r="F616" s="6"/>
+    </row>
+    <row r="617">
+      <c r="F617" s="6"/>
+    </row>
+    <row r="618">
+      <c r="F618" s="6"/>
+    </row>
+    <row r="619">
+      <c r="F619" s="6"/>
+    </row>
+    <row r="620">
+      <c r="F620" s="6"/>
+    </row>
+    <row r="621">
+      <c r="F621" s="6"/>
+    </row>
+    <row r="622">
+      <c r="F622" s="6"/>
+    </row>
+    <row r="623">
+      <c r="F623" s="6"/>
+    </row>
+    <row r="624">
+      <c r="F624" s="6"/>
+    </row>
+    <row r="625">
+      <c r="F625" s="6"/>
+    </row>
+    <row r="626">
+      <c r="F626" s="6"/>
+    </row>
+    <row r="627">
+      <c r="F627" s="6"/>
+    </row>
+    <row r="628">
+      <c r="F628" s="6"/>
+    </row>
+    <row r="629">
+      <c r="F629" s="6"/>
+    </row>
+    <row r="630">
+      <c r="F630" s="6"/>
+    </row>
+    <row r="631">
+      <c r="F631" s="6"/>
+    </row>
+    <row r="632">
+      <c r="F632" s="6"/>
+    </row>
+    <row r="633">
+      <c r="F633" s="6"/>
+    </row>
+    <row r="634">
+      <c r="F634" s="6"/>
+    </row>
+    <row r="635">
+      <c r="F635" s="6"/>
+    </row>
+    <row r="636">
+      <c r="F636" s="6"/>
+    </row>
+    <row r="637">
+      <c r="F637" s="6"/>
+    </row>
+    <row r="638">
+      <c r="F638" s="6"/>
+    </row>
+    <row r="639">
+      <c r="F639" s="6"/>
+    </row>
+    <row r="640">
+      <c r="F640" s="6"/>
+    </row>
+    <row r="641">
+      <c r="F641" s="6"/>
+    </row>
+    <row r="642">
+      <c r="F642" s="6"/>
+    </row>
+    <row r="643">
+      <c r="F643" s="6"/>
+    </row>
+    <row r="644">
+      <c r="F644" s="6"/>
+    </row>
+    <row r="645">
+      <c r="F645" s="6"/>
+    </row>
+    <row r="646">
+      <c r="F646" s="6"/>
+    </row>
+    <row r="647">
+      <c r="F647" s="6"/>
+    </row>
+    <row r="648">
+      <c r="F648" s="6"/>
+    </row>
+    <row r="649">
+      <c r="F649" s="6"/>
+    </row>
+    <row r="650">
+      <c r="F650" s="6"/>
+    </row>
+    <row r="651">
+      <c r="F651" s="6"/>
+    </row>
+    <row r="652">
+      <c r="F652" s="6"/>
+    </row>
+    <row r="653">
+      <c r="F653" s="6"/>
+    </row>
+    <row r="654">
+      <c r="F654" s="6"/>
+    </row>
+    <row r="655">
+      <c r="F655" s="6"/>
+    </row>
+    <row r="656">
+      <c r="F656" s="6"/>
+    </row>
+    <row r="657">
+      <c r="F657" s="6"/>
+    </row>
+    <row r="658">
+      <c r="F658" s="6"/>
+    </row>
+    <row r="659">
+      <c r="F659" s="6"/>
+    </row>
+    <row r="660">
+      <c r="F660" s="6"/>
+    </row>
+    <row r="661">
+      <c r="F661" s="6"/>
+    </row>
+    <row r="662">
+      <c r="F662" s="6"/>
+    </row>
+    <row r="663">
+      <c r="F663" s="6"/>
+    </row>
+    <row r="664">
+      <c r="F664" s="6"/>
+    </row>
+    <row r="665">
+      <c r="F665" s="6"/>
+    </row>
+    <row r="666">
+      <c r="F666" s="6"/>
+    </row>
+    <row r="667">
+      <c r="F667" s="6"/>
+    </row>
+    <row r="668">
+      <c r="F668" s="6"/>
+    </row>
+    <row r="669">
+      <c r="F669" s="6"/>
+    </row>
+    <row r="670">
+      <c r="F670" s="6"/>
+    </row>
+    <row r="671">
+      <c r="F671" s="6"/>
+    </row>
+    <row r="672">
+      <c r="F672" s="6"/>
+    </row>
+    <row r="673">
+      <c r="F673" s="6"/>
+    </row>
+    <row r="674">
+      <c r="F674" s="6"/>
+    </row>
+    <row r="675">
+      <c r="F675" s="6"/>
+    </row>
+    <row r="676">
+      <c r="F676" s="6"/>
+    </row>
+    <row r="677">
+      <c r="F677" s="6"/>
+    </row>
+    <row r="678">
+      <c r="F678" s="6"/>
+    </row>
+    <row r="679">
+      <c r="F679" s="6"/>
+    </row>
+    <row r="680">
+      <c r="F680" s="6"/>
+    </row>
+    <row r="681">
+      <c r="F681" s="6"/>
+    </row>
+    <row r="682">
+      <c r="F682" s="6"/>
+    </row>
+    <row r="683">
+      <c r="F683" s="6"/>
+    </row>
+    <row r="684">
+      <c r="F684" s="6"/>
+    </row>
+    <row r="685">
+      <c r="F685" s="6"/>
+    </row>
+    <row r="686">
+      <c r="F686" s="6"/>
+    </row>
+    <row r="687">
+      <c r="F687" s="6"/>
+    </row>
+    <row r="688">
+      <c r="F688" s="6"/>
+    </row>
+    <row r="689">
+      <c r="F689" s="6"/>
+    </row>
+    <row r="690">
+      <c r="F690" s="6"/>
+    </row>
+    <row r="691">
+      <c r="F691" s="6"/>
+    </row>
+    <row r="692">
+      <c r="F692" s="6"/>
+    </row>
+    <row r="693">
+      <c r="F693" s="6"/>
+    </row>
+    <row r="694">
+      <c r="F694" s="6"/>
+    </row>
+    <row r="695">
+      <c r="F695" s="6"/>
+    </row>
+    <row r="696">
+      <c r="F696" s="6"/>
+    </row>
+    <row r="697">
+      <c r="F697" s="6"/>
+    </row>
+    <row r="698">
+      <c r="F698" s="6"/>
+    </row>
+    <row r="699">
+      <c r="F699" s="6"/>
+    </row>
+    <row r="700">
+      <c r="F700" s="6"/>
+    </row>
+    <row r="701">
+      <c r="F701" s="6"/>
+    </row>
+    <row r="702">
+      <c r="F702" s="6"/>
+    </row>
+    <row r="703">
+      <c r="F703" s="6"/>
+    </row>
+    <row r="704">
+      <c r="F704" s="6"/>
+    </row>
+    <row r="705">
+      <c r="F705" s="6"/>
+    </row>
+    <row r="706">
+      <c r="F706" s="6"/>
+    </row>
+    <row r="707">
+      <c r="F707" s="6"/>
+    </row>
+    <row r="708">
+      <c r="F708" s="6"/>
+    </row>
+    <row r="709">
+      <c r="F709" s="6"/>
+    </row>
+    <row r="710">
+      <c r="F710" s="6"/>
+    </row>
+    <row r="711">
+      <c r="F711" s="6"/>
+    </row>
+    <row r="712">
+      <c r="F712" s="6"/>
+    </row>
+    <row r="713">
+      <c r="F713" s="6"/>
+    </row>
+    <row r="714">
+      <c r="F714" s="6"/>
+    </row>
+    <row r="715">
+      <c r="F715" s="6"/>
+    </row>
+    <row r="716">
+      <c r="F716" s="6"/>
+    </row>
+    <row r="717">
+      <c r="F717" s="6"/>
+    </row>
+    <row r="718">
+      <c r="F718" s="6"/>
+    </row>
+    <row r="719">
+      <c r="F719" s="6"/>
+    </row>
+    <row r="720">
+      <c r="F720" s="6"/>
+    </row>
+    <row r="721">
+      <c r="F721" s="6"/>
+    </row>
+    <row r="722">
+      <c r="F722" s="6"/>
+    </row>
+    <row r="723">
+      <c r="F723" s="6"/>
+    </row>
+    <row r="724">
+      <c r="F724" s="6"/>
+    </row>
+    <row r="725">
+      <c r="F725" s="6"/>
+    </row>
+    <row r="726">
+      <c r="F726" s="6"/>
+    </row>
+    <row r="727">
+      <c r="F727" s="6"/>
+    </row>
+    <row r="728">
+      <c r="F728" s="6"/>
+    </row>
+    <row r="729">
+      <c r="F729" s="6"/>
+    </row>
+    <row r="730">
+      <c r="F730" s="6"/>
+    </row>
+    <row r="731">
+      <c r="F731" s="6"/>
+    </row>
+    <row r="732">
+      <c r="F732" s="6"/>
+    </row>
+    <row r="733">
+      <c r="F733" s="6"/>
+    </row>
+    <row r="734">
+      <c r="F734" s="6"/>
+    </row>
+    <row r="735">
+      <c r="F735" s="6"/>
+    </row>
+    <row r="736">
+      <c r="F736" s="6"/>
+    </row>
+    <row r="737">
+      <c r="F737" s="6"/>
+    </row>
+    <row r="738">
+      <c r="F738" s="6"/>
+    </row>
+    <row r="739">
+      <c r="F739" s="6"/>
+    </row>
+    <row r="740">
+      <c r="F740" s="6"/>
+    </row>
+    <row r="741">
+      <c r="F741" s="6"/>
+    </row>
+    <row r="742">
+      <c r="F742" s="6"/>
+    </row>
+    <row r="743">
+      <c r="F743" s="6"/>
+    </row>
+    <row r="744">
+      <c r="F744" s="6"/>
+    </row>
+    <row r="745">
+      <c r="F745" s="6"/>
+    </row>
+    <row r="746">
+      <c r="F746" s="6"/>
+    </row>
+    <row r="747">
+      <c r="F747" s="6"/>
+    </row>
+    <row r="748">
+      <c r="F748" s="6"/>
+    </row>
+    <row r="749">
+      <c r="F749" s="6"/>
+    </row>
+    <row r="750">
+      <c r="F750" s="6"/>
+    </row>
+    <row r="751">
+      <c r="F751" s="6"/>
+    </row>
+    <row r="752">
+      <c r="F752" s="6"/>
+    </row>
+    <row r="753">
+      <c r="F753" s="6"/>
+    </row>
+    <row r="754">
+      <c r="F754" s="6"/>
+    </row>
+    <row r="755">
+      <c r="F755" s="6"/>
+    </row>
+    <row r="756">
+      <c r="F756" s="6"/>
+    </row>
+    <row r="757">
+      <c r="F757" s="6"/>
+    </row>
+    <row r="758">
+      <c r="F758" s="6"/>
+    </row>
+    <row r="759">
+      <c r="F759" s="6"/>
+    </row>
+    <row r="760">
+      <c r="F760" s="6"/>
+    </row>
+    <row r="761">
+      <c r="F761" s="6"/>
+    </row>
+    <row r="762">
+      <c r="F762" s="6"/>
+    </row>
+    <row r="763">
+      <c r="F763" s="6"/>
+    </row>
+    <row r="764">
+      <c r="F764" s="6"/>
+    </row>
+    <row r="765">
+      <c r="F765" s="6"/>
+    </row>
+    <row r="766">
+      <c r="F766" s="6"/>
+    </row>
+    <row r="767">
+      <c r="F767" s="6"/>
+    </row>
+    <row r="768">
+      <c r="F768" s="6"/>
+    </row>
+    <row r="769">
+      <c r="F769" s="6"/>
+    </row>
+    <row r="770">
+      <c r="F770" s="6"/>
+    </row>
+    <row r="771">
+      <c r="F771" s="6"/>
+    </row>
+    <row r="772">
+      <c r="F772" s="6"/>
+    </row>
+    <row r="773">
+      <c r="F773" s="6"/>
+    </row>
+    <row r="774">
+      <c r="F774" s="6"/>
+    </row>
+    <row r="775">
+      <c r="F775" s="6"/>
+    </row>
+    <row r="776">
+      <c r="F776" s="6"/>
+    </row>
+    <row r="777">
+      <c r="F777" s="6"/>
+    </row>
+    <row r="778">
+      <c r="F778" s="6"/>
+    </row>
+    <row r="779">
+      <c r="F779" s="6"/>
+    </row>
+    <row r="780">
+      <c r="F780" s="6"/>
+    </row>
+    <row r="781">
+      <c r="F781" s="6"/>
+    </row>
+    <row r="782">
+      <c r="F782" s="6"/>
+    </row>
+    <row r="783">
+      <c r="F783" s="6"/>
+    </row>
+    <row r="784">
+      <c r="F784" s="6"/>
+    </row>
+    <row r="785">
+      <c r="F785" s="6"/>
+    </row>
+    <row r="786">
+      <c r="F786" s="6"/>
+    </row>
+    <row r="787">
+      <c r="F787" s="6"/>
+    </row>
+    <row r="788">
+      <c r="F788" s="6"/>
+    </row>
+    <row r="789">
+      <c r="F789" s="6"/>
+    </row>
+    <row r="790">
+      <c r="F790" s="6"/>
+    </row>
+    <row r="791">
+      <c r="F791" s="6"/>
+    </row>
+    <row r="792">
+      <c r="F792" s="6"/>
+    </row>
+    <row r="793">
+      <c r="F793" s="6"/>
+    </row>
+    <row r="794">
+      <c r="F794" s="6"/>
+    </row>
+    <row r="795">
+      <c r="F795" s="6"/>
+    </row>
+    <row r="796">
+      <c r="F796" s="6"/>
+    </row>
+    <row r="797">
+      <c r="F797" s="6"/>
+    </row>
+    <row r="798">
+      <c r="F798" s="6"/>
+    </row>
+    <row r="799">
+      <c r="F799" s="6"/>
+    </row>
+    <row r="800">
+      <c r="F800" s="6"/>
+    </row>
+    <row r="801">
+      <c r="F801" s="6"/>
+    </row>
+    <row r="802">
+      <c r="F802" s="6"/>
+    </row>
+    <row r="803">
+      <c r="F803" s="6"/>
+    </row>
+    <row r="804">
+      <c r="F804" s="6"/>
+    </row>
+    <row r="805">
+      <c r="F805" s="6"/>
+    </row>
+    <row r="806">
+      <c r="F806" s="6"/>
+    </row>
+    <row r="807">
+      <c r="F807" s="6"/>
+    </row>
+    <row r="808">
+      <c r="F808" s="6"/>
+    </row>
+    <row r="809">
+      <c r="F809" s="6"/>
+    </row>
+    <row r="810">
+      <c r="F810" s="6"/>
+    </row>
+    <row r="811">
+      <c r="F811" s="6"/>
+    </row>
+    <row r="812">
+      <c r="F812" s="6"/>
+    </row>
+    <row r="813">
+      <c r="F813" s="6"/>
+    </row>
+    <row r="814">
+      <c r="F814" s="6"/>
+    </row>
+    <row r="815">
+      <c r="F815" s="6"/>
+    </row>
+    <row r="816">
+      <c r="F816" s="6"/>
+    </row>
+    <row r="817">
+      <c r="F817" s="6"/>
+    </row>
+    <row r="818">
+      <c r="F818" s="6"/>
+    </row>
+    <row r="819">
+      <c r="F819" s="6"/>
+    </row>
+    <row r="820">
+      <c r="F820" s="6"/>
+    </row>
+    <row r="821">
+      <c r="F821" s="6"/>
+    </row>
+    <row r="822">
+      <c r="F822" s="6"/>
+    </row>
+    <row r="823">
+      <c r="F823" s="6"/>
+    </row>
+    <row r="824">
+      <c r="F824" s="6"/>
+    </row>
+    <row r="825">
+      <c r="F825" s="6"/>
+    </row>
+    <row r="826">
+      <c r="F826" s="6"/>
+    </row>
+    <row r="827">
+      <c r="F827" s="6"/>
+    </row>
+    <row r="828">
+      <c r="F828" s="6"/>
+    </row>
+    <row r="829">
+      <c r="F829" s="6"/>
+    </row>
+    <row r="830">
+      <c r="F830" s="6"/>
+    </row>
+    <row r="831">
+      <c r="F831" s="6"/>
+    </row>
+    <row r="832">
+      <c r="F832" s="6"/>
+    </row>
+    <row r="833">
+      <c r="F833" s="6"/>
+    </row>
+    <row r="834">
+      <c r="F834" s="6"/>
+    </row>
+    <row r="835">
+      <c r="F835" s="6"/>
+    </row>
+    <row r="836">
+      <c r="F836" s="6"/>
+    </row>
+    <row r="837">
+      <c r="F837" s="6"/>
+    </row>
+    <row r="838">
+      <c r="F838" s="6"/>
+    </row>
+    <row r="839">
+      <c r="F839" s="6"/>
+    </row>
+    <row r="840">
+      <c r="F840" s="6"/>
+    </row>
+    <row r="841">
+      <c r="F841" s="6"/>
+    </row>
+    <row r="842">
+      <c r="F842" s="6"/>
+    </row>
+    <row r="843">
+      <c r="F843" s="6"/>
+    </row>
+    <row r="844">
+      <c r="F844" s="6"/>
+    </row>
+    <row r="845">
+      <c r="F845" s="6"/>
+    </row>
+    <row r="846">
+      <c r="F846" s="6"/>
+    </row>
+    <row r="847">
+      <c r="F847" s="6"/>
+    </row>
+    <row r="848">
+      <c r="F848" s="6"/>
+    </row>
+    <row r="849">
+      <c r="F849" s="6"/>
+    </row>
+    <row r="850">
+      <c r="F850" s="6"/>
+    </row>
+    <row r="851">
+      <c r="F851" s="6"/>
+    </row>
+    <row r="852">
+      <c r="F852" s="6"/>
+    </row>
+    <row r="853">
+      <c r="F853" s="6"/>
+    </row>
+    <row r="854">
+      <c r="F854" s="6"/>
+    </row>
+    <row r="855">
+      <c r="F855" s="6"/>
+    </row>
+    <row r="856">
+      <c r="F856" s="6"/>
+    </row>
+    <row r="857">
+      <c r="F857" s="6"/>
+    </row>
+    <row r="858">
+      <c r="F858" s="6"/>
+    </row>
+    <row r="859">
+      <c r="F859" s="6"/>
+    </row>
+    <row r="860">
+      <c r="F860" s="6"/>
+    </row>
+    <row r="861">
+      <c r="F861" s="6"/>
+    </row>
+    <row r="862">
+      <c r="F862" s="6"/>
+    </row>
+    <row r="863">
+      <c r="F863" s="6"/>
+    </row>
+    <row r="864">
+      <c r="F864" s="6"/>
+    </row>
+    <row r="865">
+      <c r="F865" s="6"/>
+    </row>
+    <row r="866">
+      <c r="F866" s="6"/>
+    </row>
+    <row r="867">
+      <c r="F867" s="6"/>
+    </row>
+    <row r="868">
+      <c r="F868" s="6"/>
+    </row>
+    <row r="869">
+      <c r="F869" s="6"/>
+    </row>
+    <row r="870">
+      <c r="F870" s="6"/>
+    </row>
+    <row r="871">
+      <c r="F871" s="6"/>
+    </row>
+    <row r="872">
+      <c r="F872" s="6"/>
+    </row>
+    <row r="873">
+      <c r="F873" s="6"/>
+    </row>
+    <row r="874">
+      <c r="F874" s="6"/>
+    </row>
+    <row r="875">
+      <c r="F875" s="6"/>
+    </row>
+    <row r="876">
+      <c r="F876" s="6"/>
+    </row>
+    <row r="877">
+      <c r="F877" s="6"/>
+    </row>
+    <row r="878">
+      <c r="F878" s="6"/>
+    </row>
+    <row r="879">
+      <c r="F879" s="6"/>
+    </row>
+    <row r="880">
+      <c r="F880" s="6"/>
+    </row>
+    <row r="881">
+      <c r="F881" s="6"/>
+    </row>
+    <row r="882">
+      <c r="F882" s="6"/>
+    </row>
+    <row r="883">
+      <c r="F883" s="6"/>
+    </row>
+    <row r="884">
+      <c r="F884" s="6"/>
+    </row>
+    <row r="885">
+      <c r="F885" s="6"/>
+    </row>
+    <row r="886">
+      <c r="F886" s="6"/>
+    </row>
+    <row r="887">
+      <c r="F887" s="6"/>
+    </row>
+    <row r="888">
+      <c r="F888" s="6"/>
+    </row>
+    <row r="889">
+      <c r="F889" s="6"/>
+    </row>
+    <row r="890">
+      <c r="F890" s="6"/>
+    </row>
+    <row r="891">
+      <c r="F891" s="6"/>
+    </row>
+    <row r="892">
+      <c r="F892" s="6"/>
+    </row>
+    <row r="893">
+      <c r="F893" s="6"/>
+    </row>
+    <row r="894">
+      <c r="F894" s="6"/>
+    </row>
+    <row r="895">
+      <c r="F895" s="6"/>
+    </row>
+    <row r="896">
+      <c r="F896" s="6"/>
+    </row>
+    <row r="897">
+      <c r="F897" s="6"/>
+    </row>
+    <row r="898">
+      <c r="F898" s="6"/>
+    </row>
+    <row r="899">
+      <c r="F899" s="6"/>
+    </row>
+    <row r="900">
+      <c r="F900" s="6"/>
+    </row>
+    <row r="901">
+      <c r="F901" s="6"/>
+    </row>
+    <row r="902">
+      <c r="F902" s="6"/>
+    </row>
+    <row r="903">
+      <c r="F903" s="6"/>
+    </row>
+    <row r="904">
+      <c r="F904" s="6"/>
+    </row>
+    <row r="905">
+      <c r="F905" s="6"/>
+    </row>
+    <row r="906">
+      <c r="F906" s="6"/>
+    </row>
+    <row r="907">
+      <c r="F907" s="6"/>
+    </row>
+    <row r="908">
+      <c r="F908" s="6"/>
+    </row>
+    <row r="909">
+      <c r="F909" s="6"/>
+    </row>
+    <row r="910">
+      <c r="F910" s="6"/>
+    </row>
+    <row r="911">
+      <c r="F911" s="6"/>
+    </row>
+    <row r="912">
+      <c r="F912" s="6"/>
+    </row>
+    <row r="913">
+      <c r="F913" s="6"/>
+    </row>
+    <row r="914">
+      <c r="F914" s="6"/>
+    </row>
+    <row r="915">
+      <c r="F915" s="6"/>
+    </row>
+    <row r="916">
+      <c r="F916" s="6"/>
+    </row>
+    <row r="917">
+      <c r="F917" s="6"/>
+    </row>
+    <row r="918">
+      <c r="F918" s="6"/>
+    </row>
+    <row r="919">
+      <c r="F919" s="6"/>
+    </row>
+    <row r="920">
+      <c r="F920" s="6"/>
+    </row>
+    <row r="921">
+      <c r="F921" s="6"/>
+    </row>
+    <row r="922">
+      <c r="F922" s="6"/>
+    </row>
+    <row r="923">
+      <c r="F923" s="6"/>
+    </row>
+    <row r="924">
+      <c r="F924" s="6"/>
+    </row>
+    <row r="925">
+      <c r="F925" s="6"/>
+    </row>
+    <row r="926">
+      <c r="F926" s="6"/>
+    </row>
+    <row r="927">
+      <c r="F927" s="6"/>
+    </row>
+    <row r="928">
+      <c r="F928" s="6"/>
+    </row>
+    <row r="929">
+      <c r="F929" s="6"/>
+    </row>
+    <row r="930">
+      <c r="F930" s="6"/>
+    </row>
+    <row r="931">
+      <c r="F931" s="6"/>
+    </row>
+    <row r="932">
+      <c r="F932" s="6"/>
+    </row>
+    <row r="933">
+      <c r="F933" s="6"/>
+    </row>
+    <row r="934">
+      <c r="F934" s="6"/>
+    </row>
+    <row r="935">
+      <c r="F935" s="6"/>
+    </row>
+    <row r="936">
+      <c r="F936" s="6"/>
+    </row>
+    <row r="937">
+      <c r="F937" s="6"/>
+    </row>
+    <row r="938">
+      <c r="F938" s="6"/>
+    </row>
+    <row r="939">
+      <c r="F939" s="6"/>
+    </row>
+    <row r="940">
+      <c r="F940" s="6"/>
+    </row>
+    <row r="941">
+      <c r="F941" s="6"/>
+    </row>
+    <row r="942">
+      <c r="F942" s="6"/>
+    </row>
+    <row r="943">
+      <c r="F943" s="6"/>
+    </row>
+    <row r="944">
+      <c r="F944" s="6"/>
+    </row>
+    <row r="945">
+      <c r="F945" s="6"/>
+    </row>
+    <row r="946">
+      <c r="F946" s="6"/>
+    </row>
+    <row r="947">
+      <c r="F947" s="6"/>
+    </row>
+    <row r="948">
+      <c r="F948" s="6"/>
+    </row>
+    <row r="949">
+      <c r="F949" s="6"/>
+    </row>
+    <row r="950">
+      <c r="F950" s="6"/>
+    </row>
+    <row r="951">
+      <c r="F951" s="6"/>
+    </row>
+    <row r="952">
+      <c r="F952" s="6"/>
+    </row>
+    <row r="953">
+      <c r="F953" s="6"/>
+    </row>
+    <row r="954">
+      <c r="F954" s="6"/>
+    </row>
+    <row r="955">
+      <c r="F955" s="6"/>
+    </row>
+    <row r="956">
+      <c r="F956" s="6"/>
+    </row>
+    <row r="957">
+      <c r="F957" s="6"/>
+    </row>
+    <row r="958">
+      <c r="F958" s="6"/>
+    </row>
+    <row r="959">
+      <c r="F959" s="6"/>
+    </row>
+    <row r="960">
+      <c r="F960" s="6"/>
+    </row>
+    <row r="961">
+      <c r="F961" s="6"/>
+    </row>
+    <row r="962">
+      <c r="F962" s="6"/>
+    </row>
+    <row r="963">
+      <c r="F963" s="6"/>
+    </row>
+    <row r="964">
+      <c r="F964" s="6"/>
+    </row>
+    <row r="965">
+      <c r="F965" s="6"/>
+    </row>
+    <row r="966">
+      <c r="F966" s="6"/>
+    </row>
+    <row r="967">
+      <c r="F967" s="6"/>
+    </row>
+    <row r="968">
+      <c r="F968" s="6"/>
+    </row>
+    <row r="969">
+      <c r="F969" s="6"/>
+    </row>
+    <row r="970">
+      <c r="F970" s="6"/>
+    </row>
+    <row r="971">
+      <c r="F971" s="6"/>
+    </row>
+    <row r="972">
+      <c r="F972" s="6"/>
+    </row>
+    <row r="973">
+      <c r="F973" s="6"/>
+    </row>
+    <row r="974">
+      <c r="F974" s="6"/>
+    </row>
+    <row r="975">
+      <c r="F975" s="6"/>
+    </row>
+    <row r="976">
+      <c r="F976" s="6"/>
+    </row>
+    <row r="977">
+      <c r="F977" s="6"/>
+    </row>
+    <row r="978">
+      <c r="F978" s="6"/>
+    </row>
+    <row r="979">
+      <c r="F979" s="6"/>
+    </row>
+    <row r="980">
+      <c r="F980" s="6"/>
+    </row>
+    <row r="981">
+      <c r="F981" s="6"/>
+    </row>
+    <row r="982">
+      <c r="F982" s="6"/>
+    </row>
+    <row r="983">
+      <c r="F983" s="6"/>
+    </row>
+    <row r="984">
+      <c r="F984" s="6"/>
+    </row>
+    <row r="985">
+      <c r="F985" s="6"/>
+    </row>
+    <row r="986">
+      <c r="F986" s="6"/>
+    </row>
+    <row r="987">
+      <c r="F987" s="6"/>
+    </row>
+    <row r="988">
+      <c r="F988" s="6"/>
+    </row>
+    <row r="989">
+      <c r="F989" s="6"/>
+    </row>
+    <row r="990">
+      <c r="F990" s="6"/>
+    </row>
+    <row r="991">
+      <c r="F991" s="6"/>
+    </row>
+    <row r="992">
+      <c r="F992" s="6"/>
+    </row>
+    <row r="993">
+      <c r="F993" s="6"/>
+    </row>
+    <row r="994">
+      <c r="F994" s="6"/>
+    </row>
+    <row r="995">
+      <c r="F995" s="6"/>
+    </row>
+    <row r="996">
+      <c r="F996" s="6"/>
+    </row>
+    <row r="997">
+      <c r="F997" s="6"/>
+    </row>
+    <row r="998">
+      <c r="F998" s="6"/>
+    </row>
+    <row r="999">
+      <c r="F999" s="6"/>
+    </row>
+    <row r="1000">
+      <c r="F1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
